--- a/data/hotels_by_city/Dallas/Dallas_shard_73.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_73.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="669">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Latasha W</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>SkenderBeg_Easy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r525401129-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Any time that I end up visiting Fort Worth I choose Comfort Inn and for real it is very comfort. Hotel is great hotel, staff is very friendly and they offer warm hospitality, nice rooms and very clean. The breakfast was great, fresh and well done.More</t>
   </si>
   <si>
+    <t>Andrea H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r578531291-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Very nice property and extremely friendly staff.  Relatively new and very clean.  Great location as you head west to avoid the DFW traffic the next day.  Lots of dinner options and shopping fairly close by.More</t>
   </si>
   <si>
+    <t>Crystal P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r575198210-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>My husband and I stayed here this past weekend when we got married. We also had family from out of town who stayed here. Everything was perfect and the staff was awesome. When we got back to our room after the wedding there were rose petals on the floor, a gorgeous bouquet of roses on the dresser and roses and roses petals on the bed along with a note from the staff. The whole experience was an A+. Thank you Harmony and staff for everything!!!More</t>
   </si>
   <si>
+    <t>grandpopbk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r574423414-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>Rooms are clean, hotel staff is friendly and amenities super. Great place to stay. I stayed here before and was glad to be able to stay again this year. The maintenance man Joe is such a friendly person, he was glad to see us come back. The breakfast in the morning is just enough to get you day started. Would recommend this Comfort Inn to any looking for a place to stay. Easy access to a main highway. Only 15 minutes from the Fort Worth convention center.More</t>
   </si>
   <si>
+    <t>SafetyDave1986</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r573094713-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>I have now stayed at this property three times in the last four years.  All three visits have been very satisfactory.  Access is easy, parking is ample, and the rooms are comfortable.  I stay on the Scott Street side and never hear any road noise.  You get some aircraft noise from the naval air station, but it doesn't amount to much.  I set my HVAC to Auto.  It did not come on all night and the room was very quiet.On this trip I realized that I had forgotten to print off a document I needed for the seminar I was to conduct.  I e-mailed it to myself but couldn't get the business center printer to print it.  The desk clerk had me e-mail it to her, and she printed it and made 40 copies.  This made my trip much more successful.More</t>
   </si>
   <si>
+    <t>gwenivereb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r569480038-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -360,6 +381,9 @@
     <t>friendly staff, great breakfast area and great food  fridge in room microwave  roomd were huge  nice outdoor pool , shopping close by and restraunts in walking distance , laundry facility on site  we were waiting for the arrival of our grandson, close to downtown fortworth maybe 8 to 10 min drive. Great price !!More</t>
   </si>
   <si>
+    <t>archiphoto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r563459422-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -384,6 +408,9 @@
     <t>I constantly travel and typically just need a place to work, sleep, and is convenient to food.  This was perfect and affordable.  The surroundings are quiet and the help desk was very friendly.  The room was perfect: clean room, comfortable beds, hot shower, working TV and internet.  Breakfast was average but you get what you pay for.  There's an IHOP right next door which I walked to have dinner.  Would stay here in a heartbeat.More</t>
   </si>
   <si>
+    <t>ritahP5906VI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r553925919-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -411,6 +438,9 @@
     <t>This was the last leg of our Texas trip. We wanted to visit the Stock yards and see the rodeo’s. The only complaint was the eggs for breakfast. They were laying in water and my boyfriend was frustrated. Out of three night stay, we only ate breakfast once. I had a bagel and after a long wait and one look at the eggs, he had cereal. Other than that, we had friendly service and a clean quiet room.More</t>
   </si>
   <si>
+    <t>CJEdmo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r550903987-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -435,6 +465,9 @@
     <t>We are traveling through Texas in search of warmer weather.  We found this facility very clean and welcoming. Our room was spacious and very comfortable. We had a very nice sitting area - one of the best we have had. Bed was firm and comfortable and the pillows were just right. Great stay. Thank you. More</t>
   </si>
   <si>
+    <t>Deranda D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r549581641-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -465,6 +498,9 @@
     <t>I must say that this one-night hotel stay really exceeded expectations. The comfortability of the bed  gave the best warm and cozy. The amenities and the design of the room was so great, including the view. Harmony at the front desk was very special with attending our needs.More</t>
   </si>
   <si>
+    <t>Mark G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r549499877-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -480,6 +516,9 @@
     <t>We had an impromptu extended stay due to some unforeseen medical concerns from 12/7/17 – 12/28/17.  Corporate [Michelle] and local [Nolan &amp; Harmony] management went above and beyond to ensure a pleasant stay; they were excessively generous, hospitable, and friendly!  It is clear that this management team has created a culture that values its members – which translates to an all-around phenomenal stay for its guest!  Upon arrival, we connected immediately with Harmony [Assistant Manager]; she welcomed us with open arms and expressed a tremendous amount of love for our family.  Just 12 hours after checking in, Harmony had already purchased gifts for our kids – she connected beautifully with our entire family and would regularly come up and check on us, asking by name, how everyone was doing.  We always enjoyed visiting with Joe [housekeeping manager, maintenance, cook, security, concierge, jack of all trades] and enjoyed a lunch with him of Christmas.  Joe has an extreme work ethic and is customer centered – always willing to go the extra mile to ensure a pleasant stay; and always with a smile!  We praise the housekeeping ladies who were very efficient and meticulous.  Louise, Nancy, Mary, Thomas and the rest of the front desk workers shared the customer centered vison; always greeting us with a smile, asking about how our family/stay was, and what they could do to improve our visit.  As a family of five [children 4 ½, 3, and...We had an impromptu extended stay due to some unforeseen medical concerns from 12/7/17 – 12/28/17.  Corporate [Michelle] and local [Nolan &amp; Harmony] management went above and beyond to ensure a pleasant stay; they were excessively generous, hospitable, and friendly!  It is clear that this management team has created a culture that values its members – which translates to an all-around phenomenal stay for its guest!  Upon arrival, we connected immediately with Harmony [Assistant Manager]; she welcomed us with open arms and expressed a tremendous amount of love for our family.  Just 12 hours after checking in, Harmony had already purchased gifts for our kids – she connected beautifully with our entire family and would regularly come up and check on us, asking by name, how everyone was doing.  We always enjoyed visiting with Joe [housekeeping manager, maintenance, cook, security, concierge, jack of all trades] and enjoyed a lunch with him of Christmas.  Joe has an extreme work ethic and is customer centered – always willing to go the extra mile to ensure a pleasant stay; and always with a smile!  We praise the housekeeping ladies who were very efficient and meticulous.  Louise, Nancy, Mary, Thomas and the rest of the front desk workers shared the customer centered vison; always greeting us with a smile, asking about how our family/stay was, and what they could do to improve our visit.  As a family of five [children 4 ½, 3, and Newborn], we feared how the hotel stay would impact our Christmas traditions.  Being beautifully decorated for the Christmas season, and because of the hospitality of this location, we not only were able to continue our family traditions, but also start new traditions that we will look forward to for the years to come.  We highly recommend this location to our family and friends, and look to utilize it in the future for further medical treatment(s).Mark G.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r547744890-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>I checked into this hotel and had mostly great experiences. As I was running late for my wedding, I asked Harmony at the front desk where the business center was and she quickly told me. The printer seemed to not be connecting to the computer so as I was anxious, I gave up. As I was walking out the front door, Harmony stopped me and asked if I had gotten the printed documents I needed and I told her no. She was kind enuff to print them from the front desk for me without any problems. I was quite grateful for her help and would recommend this hotel to anyone. More</t>
   </si>
   <si>
+    <t>David G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r538918130-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>Slight problem on our end with the reservations, but Mary at the front desk fixed it quickly and perfectly, even got us a first floor room, perfect for my aching back.  Room was clean, comfortable, and surprisingly quiet for being right next to the pool.  Mary was there for everything we needed.  Look her up if you come by!  you'll be sure to get a great experience.More</t>
   </si>
   <si>
+    <t>CarolynChester</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r529258995-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -543,6 +588,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Crissy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r504611306-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
     <t>Spent one night at the Comfort Inn &amp; Suites FW West after a 20 yr reunion near the FW Botanic garden. Although the surrounding area didn't look that great we returned around 2am on a Saturday night and had no issues within the hotel parking lot. Hotel was a pleasant surprise and had nice lobby and dining/seating areas. It seemed new or recently remodeled. Our room was clean and nicely decorated. The bed was comfortable and there was a nice breakfast selection. An internet search led us to a nearby restaurant, grocery store &amp; movie theater. There was an indoor trampoline place next door and a Chuck E Cheese across the street so would be convenient for those with kids. Had an outdoor pool, although we did not use it. Front desk associate was friendly. My husband arrived before me around noon and they were able to get a room ready for him to check in early which was much appreciated. Checkout was effortless. I would stay at this hotel again if I needed to be in the area and recommend it to others.More</t>
   </si>
   <si>
+    <t>Cathy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r502883430-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>Friendly staff, spacious room and comfortable bed. Everything felt new and clean, bathroom in great working order, AC perfect, and probably one of the best complimentary breakfasts weve found for this class of hotel. The pantry manager was available and we saw him take care of guest questions and restock food before anyone knew it needed to be done. Location is not as convenient to restaurants, attractions,etc. - but quick access to I30 makes it easy to get around.Definiitey recommend and would stay again.More</t>
   </si>
   <si>
+    <t>glwadeod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r499767933-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -618,6 +672,9 @@
     <t>Really about a 3.5.  Nice employees, nice room.  The place could have been vacuumed better.  Wifi was bad.  Good location for our trip.  TV didn't work for us, but we didn't need it anyway.  Plenty of parking out back, the entrance was a little awkward.  I'll stay again if I am in the area.More</t>
   </si>
   <si>
+    <t>kellztwin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r494096797-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -642,6 +699,9 @@
     <t>We stayed at this hotel for 4 nights. Rooms and bathrooms were very clean. AC worked great. Location is ok, not many places to eat with ing walking distance but several just a short drive. I would stay again.More</t>
   </si>
   <si>
+    <t>bre e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r493863600-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -666,6 +726,9 @@
     <t>New hotel modern decor furnishings &amp; flooring Very nice clean comfortable Large spacious roomsBed very comfortable quality mattress Convenient location near shopping &amp; restaurants Front desk staff very nice &amp; friendlyMore</t>
   </si>
   <si>
+    <t>beach-dreamDenver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r487094571-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -696,6 +759,9 @@
     <t>Room was clean, bed was comfortable, breakfast is fine, microwave and fridge in the room.  I was a bit concerned when I first checked in since the front door was locked.  The lady behind the counter opened it for me and said she felt more comfortable with it being locked so I was worried I was in a bad area but I never felt unsafe at the hotel and I was traveling alone. I was on the 3rd floor and did have one night with loud people above me but that isn't the hotel's fault.  I was right near the elevator too and I could hear it ding so I would suggest the 4th floor and away from the elevator.  I might check out another hotel the next time I'm there but would also stay here again.More</t>
   </si>
   <si>
+    <t>Perry P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r485561800-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -720,6 +786,9 @@
     <t>Nothing about the hotel stands out as wow or amazing. It is a good place to stay. Our family had three rooms and everyone was happy with their room. The beds were comfortable, not fantastic. The rooms were fairly large. We had a suite. My only complaint was the sofa. It was uncomfortable to sit on.Every employee we encountered was polite and helpful. The breakfast was what we expected after reading other reviews. The parking is good. You will drive a little to get to any restaurants or attractions, but nothing is too far away. Overall, we would stay there again. I would recommend this hotel especially if you are passing through on I-30.More</t>
   </si>
   <si>
+    <t>kristi4shopping</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r478573727-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -747,6 +816,9 @@
     <t>We had a very disappointing experience in Dec. 2016 but after speaking to the manager last time decided to give this hotel another chance.  This time there was bodily fluids on the dust ruffle, a bunch of paint missing from the toilet seat, the towel bar fell off the wall while we were watching TV &amp; nothing was hanging on it, the bathroom vanity was broken, the AC cover was broken, &amp; the room was very dusty.  This hotel is only 3 years old &amp; it's falling apart!  It's heartbreaking really.  The breakfast was average.More</t>
   </si>
   <si>
+    <t>renaissancegal45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r462372502-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -774,6 +846,9 @@
     <t>I stayed in this property for one overnight, with my teenage daughter.  The room was spacious and nice, and it was very handy to have a refrigerator and microwave.  The staff was very friendly and helpful.  Breakfast was good - not extensive or exciting, but fine, with waffles you can make fresh, and standard fare eggs.  The dining area is quite nice, as it the lobby area, in general.  There isn't a huge supply of restaurants in the area, although it is less than 15 minutes drive to areas with more restaurants to offer, and also a large mall with movie theaters, etc. On either side of the hotel, there are major roadways, so the traffic noise was more significant than we anticipated, and is something to bear in mind.  No significant aircraft noise, during our stay (unlike some properties in this general area due to the air base).More</t>
   </si>
   <si>
+    <t>mossy48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r461840924-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -792,6 +867,9 @@
     <t>We stayed in this hotel for two nights. It was very quiet and clean. The breakfast was very good with additional items such as biscuits, gravy and freshly prepared eggs.The bedding was very comfortable. It was easily accessible to the interstate.More</t>
   </si>
   <si>
+    <t>trudyb62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r457765101-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -813,6 +891,9 @@
     <t>Nice place Rooms were fine and they were clean They were very pleasant and I felt safe there. Any questions I had they would answer for me. Walking distance to a few stires to shop. Wasnt too hard to find eitherMore</t>
   </si>
   <si>
+    <t>MEBFL8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r449456759-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -837,6 +918,9 @@
     <t>I have been checking in every Monday and checkout Thursday for a couple of years now and all I can say is Mary is absolutely a pleasure to see each Monday night. I'm welcomed like I've come home. The property is new and wonderfully clean. Louise handles my reservations each week with a smile and greets me each morning. That is service you just can't touch anywhere in the Fort Worth area. I highly recommend to anyone looking for a hotel in the area to book here.More</t>
   </si>
   <si>
+    <t>nangels4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r446312912-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -864,6 +948,9 @@
     <t>We had a great time. Mary and Lousie were great, wonderful front desk relations, they were so very helpful, from reservation to check out, anything you needed they were there. Along with Joe and the whole housekeeping staff. We will definitely stay again. More</t>
   </si>
   <si>
+    <t>billylansdell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r442484288-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -882,6 +969,9 @@
     <t>I have been staying  here 2 to 4 nights a week since late January and am astonished at how week after week I receive excellent service. Just last night Mary welcomed me with a big friendly smile and had me in a great room in minutes!More</t>
   </si>
   <si>
+    <t>Richie E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r442423150-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -900,6 +990,9 @@
     <t>Clean and friendly place to stay, everyone who works here is awesome. The people are friendly and very helpful. I would certainly stay here again. Food was great and very tasty.  next year I will be back!More</t>
   </si>
   <si>
+    <t>Coconutkelly26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r435490095-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1011,9 @@
     <t>We had multiple reservations coming in for a business trip. Mary at the front desk was amazing during check in as our reservations were mixed up (our mistake). She got us sorted out and taken care of. The room was nice and updated. The shower was hot and has multiple shower head setting which was nice after driving all day.More</t>
   </si>
   <si>
+    <t>GFFriend</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r429748003-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1035,9 @@
     <t>We usually try to stay in a Comfort Inn &amp; Suites when on the road because we can usually count on them to be efficient and clean.  This was no exception.  Mary, and all of the other desk staff, were friendly and courteous.  Housekeeping did a good job.  The bed and pillows were comfortable.  This appears to be an older hotel that has been refreshed somewhat.  It does have a few drawbacks; like very poor water pressure and even though just off a major highway, it is located in a somewhat out of the way area for dining, shopping, etc. If a woman has long hair, the water pressure is such that it would take quite some time to get the shampoo/conditioner rinsed out.  There is a Wendy's across the street, a Subway about a block away, but otherwise one has to drive to an area that has WalMart, Albertsons, Chili's, and a few other restaurants--an easy drive, about 4-5 miles away.  The area nearby appears to be suffering a bit economically, but we felt safe.  We stayed there several days, and even with the drawbacks, we would stay there again.  Quite comfortable.More</t>
   </si>
   <si>
+    <t>BNADFW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r409706730-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -966,6 +1065,9 @@
     <t>I have stayed at the property three times and am surprised at how dedicated some of the staff is - Louise, Nancy and I think his name is Joe - he does a little bit of everything from cleaning rooms to cooking breakfast and sometimes puts in 15 hours days - they were all so helpful to me when I was there July 21 - August 1.  The down side, and this is huge, is that my dad died, and I really needed the business center to write Dad's obituary and eulogy, not to mention look up the massive amounts of phone numbers I needed to call.  The manager and weekend staff could have cared less (the weekend clerk told me to go to the library) while the manager let me use a laptop that lasted me 2 and a half hours, but did not leave me a cord and then left for the weekend.  While I appreciate him giving me the laptop, I really needed full time use of a computer, when he refused to fix.  He said he was being billed for something he didn't get and he refused to pay them - at the expense of losing an otherwise happy guest.  I didn't get my eulogy written (my handwriting is horrible and my hands cramp, so longhand was just too much) and I had to do it from memory and while Dad would have been happy with...I have stayed at the property three times and am surprised at how dedicated some of the staff is - Louise, Nancy and I think his name is Joe - he does a little bit of everything from cleaning rooms to cooking breakfast and sometimes puts in 15 hours days - they were all so helpful to me when I was there July 21 - August 1.  The down side, and this is huge, is that my dad died, and I really needed the business center to write Dad's obituary and eulogy, not to mention look up the massive amounts of phone numbers I needed to call.  The manager and weekend staff could have cared less (the weekend clerk told me to go to the library) while the manager let me use a laptop that lasted me 2 and a half hours, but did not leave me a cord and then left for the weekend.  While I appreciate him giving me the laptop, I really needed full time use of a computer, when he refused to fix.  He said he was being billed for something he didn't get and he refused to pay them - at the expense of losing an otherwise happy guest.  I didn't get my eulogy written (my handwriting is horrible and my hands cramp, so longhand was just too much) and I had to do it from memory and while Dad would have been happy with it, I was not.  But Nancy was so kind, she even gave me a sympathy card and Louise and Joe were also making sure I had whatever I needed.  I was disappointed to learn, however, that the housekeepers were not changing my sheets but just making the bed.  After suspecting that, I marked the sheets, and sure enough, they were not getting changed.  when I told Joe, they were definitely changed that night!  I will probably stay there again, since I like having someone on staff that knows who I am, but the manager leaves a lot to be desired as does the housekeeping staff.More</t>
   </si>
   <si>
+    <t>Shanan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r383539740-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1089,9 @@
     <t>This is a very nice place to stay for the price!  Rooms are spacious, clean and modern.  The beds are big &amp; comfy. The breakfast is always good and staff is courteous &amp; friendly.  The outdoor pool was clean.  Great place for a family get away. We will def stay again.More</t>
   </si>
   <si>
+    <t>Deron P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r380570767-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1152,9 @@
     <t>I was in a hurry and booked this hotel instead of one closer to where I needed to go. Very well kept and on my way back through stayed there again. A 3 star hotel very well suited for a short stopover and one of the best values for money I have found in a while.More</t>
   </si>
   <si>
+    <t>GoGators4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r368289395-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1182,9 @@
     <t>Our family stayed at this hotel and to my surprise it was a very experience. The desk employees were very professional and helpful which always a great thing when you're spending time at a hotel. In particular, there was a young lady at the desk by the name of India. She was so helpful and personable with all the customers. I noticed she was really excited about helping customers. She helped me in making my experience a great one. Thanks Comfort Inn employees.More</t>
   </si>
   <si>
+    <t>sierra456</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r362419779-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1209,9 @@
     <t>Comfy, clean, and affordable! The room was very spacious and clean. The staff was exceptional! Very friendly and kind, really made me feel welcome during my stay. The breakfast options that are offered here are very good as well. Great experience from the moment I checked in to the moment I checked out. Will be staying here again in the future. More</t>
   </si>
   <si>
+    <t>gmgidhome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r362283843-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1233,9 @@
     <t>Room overall was pretty good, but there were some issues:- Horrible Wifi.- Poor water pressure.- Loud housekeepers.- Broken elevator.- Breakfast was not great.- Location is a bit hard to get to. I expected a bit higher quality for what I paid.More</t>
   </si>
   <si>
+    <t>TomassoJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r355236756-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1260,9 @@
     <t>I stayed here for 2 nights and was pleasantly surprised. I arrived too early as it was raining so I just wanted to get indoors, the kind gentleman at the desk let me check in 3 hours before I was meant to, which really helped and I was grateful for.The location - at the moment, Cherry St is being dug up, so there is a small detour when you come off I30 but it's well signposted and easy to follow. It's next to an iHOP and across the road from a Chuckie Cheese (if you have kids that like that kind of thing)First Impressions - the hotel is very clean and modern. The staff are friendly.The room - I stayed in a room on the 1st floor (102) and it was really big. The room was clean and had everything I required.The breakfast - this was served 6-10 at weekends and you could have waffles, some hot food (sausage, egg etc), toast, cereal, pastry, fruit, juice and coffee. Was enough to have a good start to the day.All in all, I would highly recommend the hotel. It's on the outskirts of Fort Worth, however it's only a 30 minute drive to get to the touristy places at most.More</t>
   </si>
   <si>
+    <t>KevEola</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r344359521-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1290,9 @@
     <t>The construction quality and room amenities (mini-fridge,  microwave) were nicer than expected for a budget hotel. Friendly front-desk staff; good variety of items as part of the free breakfast buffet!  Will definitely return to this hotel on our next trip visiting family on the westside of Ft Worth!I will add that this is the first time I've had a room with both soft and firm pillows. Never had a choice like this before. Very impressive!More</t>
   </si>
   <si>
+    <t>AZMesaFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r342188920-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1311,9 @@
     <t>This hotel is just what you would expect from a Comfort Suites. Checkin: was fast and friendlyRoom: hot water was not very hot for a bathBreakfast: all the usual like waffles, biscuits &amp; gravy, yogurt, bread, juices... The usual. Checkout: was just as easy as checkinMore</t>
   </si>
   <si>
+    <t>MB F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r342086988-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1329,9 @@
     <t>Great hotel- but request a room FAR from the ice machine! Our king room was spacious and clean however the ice machine was directly across the hall and it was EXTREMELY noisy. Otherwise I'd stay here again. Great price and location. (*Bring your own pillow)More</t>
   </si>
   <si>
+    <t>clauckn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r333850278-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1224,6 +1353,9 @@
     <t>I was really impressed with the size of the room and the updated feel to it. It had nice finishes and furniture. The hotel staff was amazing and went above and beyond when the cable box went out in my room. They immediately found me another room and offered assistance to help me move from one room to the other. The location is close to multiple places to shop and eat. I was very happy with my stay and would definitely stay here again if I travel back through. More</t>
   </si>
   <si>
+    <t>parrishgr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r331123343-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1248,6 +1380,9 @@
     <t>India at the front desk was great. very nice, helpful and professional.she has a big nice smile and made me feel welcomed she was good with recommendations and directions as well.keep up the good work India! I would definitely come back againMore</t>
   </si>
   <si>
+    <t>AlistairCoy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r323758898-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1410,9 @@
     <t>I have no hesitation in recommending this as a good place to stay and will detail the two improvements in a moment.The welcome was great and particular thanks to Elena for sorting a minor problem. The room was immaculate in every aspect, the breakfast was typical fayre but perfectly acceptable and 24 hour great coffee was always available.What they need to change/improve is the water pressure which was very poor and the supposed high speed internet which reminded me of the old days for those who remember of 56k dial up!!  Get these sorted and it would be a 5* review.  That said, please don't let these two issues stop you booking here.  It is a nice place to stay and very convenient for Fort Worth.More</t>
   </si>
   <si>
+    <t>Frank C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r319852661-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1437,9 @@
     <t>Is was excellent and service and every one and nice clean And sims family in Joy nice stay and Customers service Excellent and people nice helpful and beth was clean and Down Lobby was clean and poolsMore</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r313903644-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1467,9 @@
     <t>This is my first time here. The staff at check-in was very warm and welcoming. The rooms are super nice and the outside pool was nice to use also. This hotel is 14 months old and it is kept nicely. Breakfast was good too. Try it and I think you will like it!More</t>
   </si>
   <si>
+    <t>andcondeb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r311162408-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1350,6 +1494,9 @@
     <t>Clean and comfortable place. One of the friendliest hotels I have been to . The young girl India I think her name is was lovely , very helpful and informative . A credit to the company. Breakfast was plentiful , hit and cold buffet. Free coffee in reception 24 hours. Good location for jfk and Dallas Cowboys stadium and the stock yards and outlet shops. Would definately recommend and stay here again .More</t>
   </si>
   <si>
+    <t>Ricky O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r305412531-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1524,9 @@
     <t>Great place to stay. On hand staff was excellent! Was greeted with a smile at check in and check out. Breakfast was eggs sausage gravy waffles, not the usual continental. Definitely would recommend staying at this choice hotel!More</t>
   </si>
   <si>
+    <t>Zach H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r302918774-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1401,6 +1551,9 @@
     <t>Needed a hotel at the last minute for myself and my 3 month old.Pros: Room was very clean, staff was very helpful and friendly, free breakfast was good. Wasn't five star, but it was good for free breakfast.Cons: Room did not have blinds to block sunlight, water pressure from bathroom sink was non existent, Cable TV kept going in and out which required me to repeatedly have to reset the cable box. Front desk did give me $10 off room for this problem.Cons may seem like they outweigh the pros, but it's only an honest review. I was stuck in a bind, got a last second room with good service. What more can I ask for?Would I go back? Yeah, it was clean and comfortable. Compared to the surrounding hotels, it was excellent.More</t>
   </si>
   <si>
+    <t>Greg D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r296503287-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1578,9 @@
     <t>Very nice, clean, comfortable lodging.  India, was a new employee and was a terrific front desk hostess.  Kyle and the rest of the staff as well.  Spent 2 nights there.  So clean !  Safe area to stay in. close to everything you might want to see in Ft Worth.More</t>
   </si>
   <si>
+    <t>Dawn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r291796009-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1452,6 +1608,9 @@
     <t>My husband and I have traveled for the last 3 yrs. weekly, was the best comfort inn we have ever been to,  was clean, the room was clean, the staff was amazing. we will continue to stay at this one when we are in the area.More</t>
   </si>
   <si>
+    <t>Mike P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r283362368-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1479,6 +1638,9 @@
     <t>We were in Ft Worth for a baseball tournament and were scheduled to stay at the hotel for several days. But the first 2 days were rained out so the entire team had to cancel the first 2 days stay.The hotel staff were very accommodating and friendly.The hotel was very clean and fresh.We will definitely stay here again in the future.Wonderful stay!More</t>
   </si>
   <si>
+    <t xml:space="preserve">Byron1boykin </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r278315093-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1692,9 @@
     <t>This is a very nice property: clean, well-run and quiet.  I stayed on the Scott Street side and heard no road noise at all.  There is some noise from aircraft taking off from and landing at the nearby naval air station, but this stopped at a reasonable hour.  Breakfast was good, too.More</t>
   </si>
   <si>
+    <t>Denise L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r266241521-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1557,6 +1722,9 @@
     <t>Waiting for home to be built and nowhere to go? Comfort Inn in White Settlement has been the perfect choice for us! We were able to secure a suite with a kitchenette and comfortable King size bed, for a great price. The staff has been very accommodating and housekeeping is such a delight. The rooms are clean, updated, and quiet. Facilities include a laundry room. work out room, and a hot breakfast every day until 9:00 AM. Highly recommend this place.More</t>
   </si>
   <si>
+    <t>Kristy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r266167865-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1575,6 +1743,9 @@
     <t>The pictures don't lie, this place is very clean and nice, quiet, new, very kind happy staff and everything you could want for a business trip, of visit, affordable, internet works great--- great find--- Ill be back.More</t>
   </si>
   <si>
+    <t>MKM78163</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r265735517-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1599,6 +1770,9 @@
     <t>Staff was very friendly and helpful. Room was clean, everything worked, decor was modern and up to date. The property appears to be pretty new. The free breakfast was good, with many hot and cold choices. Location is easy to get in and out of. Traffic was light even during Friday afternoon/evening rush hour. There is a Naval Air Station within a mile. We stayed Friday thru Sunday and only heard one jet, and it was during daylight hours. Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>nbrewer2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r261328180-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1644,6 +1818,9 @@
     <t>I have had the privilege of being a repeat customer at this Comfort Inn in White Settlement and the experience has been so outstanding I always choose it over many large name brand hotels. The hotel is new and clean and the staff is outstanding. In fact the staff deserves an extra shoutout. All have been welcoming and extremely helpful even when arriving very late. The rooms are large, modern and the bedding is the best around. Always a great nights sleep. The location is close to downtown and I highly recommend staying here.More</t>
   </si>
   <si>
+    <t>MrKristof</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r244587911-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1671,6 +1848,9 @@
     <t>I chose this hotel because its so new and it was at a great location from Will Rogers Coliseum. Check in was very easy and the lady at the desk was very helpful. The room was very nice and beds extremely comfortable. They were pretty standard in size but I had zero complaints. Breakfast was decent. It wasn't gourmet food but it did the job. They had your standard waffle maker, eggs, sausage, milk, juices, and coffee. There wasn't any issues with there being enough food. The breakfast bar was well stocked. The location of the hotel is very convenient. Food, shopping, and downtown is just a hop and a skip away. The area it was in also felt safe. I highly recommend this hotel if your planning on being in the Fort Worth area. Whether your traveling solo, as a couple, or with family its a very good choice.More</t>
   </si>
   <si>
+    <t>htowntravelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r243398321-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1692,6 +1872,9 @@
     <t>I was visiting for a leisure stay and it was quite roomy and quiet peaceful sleep. the jacuzzi tube was a nice added feature and i am glad to have had that room. make sure you go thru the choice hotels site online for a better deal on this place...the breakfast was good.More</t>
   </si>
   <si>
+    <t>HJS716</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r242005087-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1716,6 +1899,9 @@
     <t>Felt like a brand new hotel, very clean and comfortable.  Very friendly and efficient check in and check out, nice to be greeted by a smiling face!!  Close to I-30, easy on and off but no interstate noise.  Breakfast was not fully stocked but, when asked, all things needed were supplied quickly. Will definitely choose this motel again.More</t>
   </si>
   <si>
+    <t>JRMcCoy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r241574915-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1734,6 +1920,9 @@
     <t>We had just sold our house and had not closed on our new house yet. The staff took us in like family. Rooms very nice and clean. Lots of room to park. Washer &amp; dryers on site, it did cost but worked very well. Breakfast everyday with a large selection. Nice lobby with tv so we didn't have to stay in our room constantly.  Small but nice work out room with tv. Small office with computers separet from lobby for no noise. They even had a nice pool, not huge but bigger the lots. Close to shopping and resturants, like 5 minutes. Loved this place, would highly recommend to everyone. Easy handicap access for my husband also.More</t>
   </si>
   <si>
+    <t>KimboTwo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r234429537-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1761,6 +1950,9 @@
     <t>New, Clean, convenient. Linens were fresh, new. Nice size bathroom, great shower. OVer 100 cable TV channels. Outside Pool, no hot tub found. Desk clerk cheerful, helpful. Free breakfast fresh, nothing special, but hot and good.  Free newspaper. Convenient tro I-30, just off Cherry Lane north of I-30.More</t>
   </si>
   <si>
+    <t>lubbockmom6767</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r230946541-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +1971,9 @@
     <t>1. breakfast started late, broken coffee maker, rotten fruit 2. not the cleanest room3. bad part of town, homeless and shady looking people everywhere4. nice front desk staff5. for the area it's a better choice than the sleazy motels surrounding it though.More</t>
   </si>
   <si>
+    <t>Bulld0g_44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r227580858-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1804,6 +1999,9 @@
   </si>
   <si>
     <t>Staff was friendly and helpful. Had a TV issue, and they responded quickly and professionally.The hotel was very clean, it seemed to have been just remodeled. The rooms were generously sized and very quiet. Bed was comfortable, and a big plus was a shower with a tall showerhead and good pressure.Overall, a nice place, conveniently located, and a good value.More</t>
+  </si>
+  <si>
+    <t>Judy P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r224933715-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
@@ -2329,43 +2527,47 @@
       <c r="A2" t="n">
         <v>63409</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>124430</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2379,50 +2581,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63409</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>124431</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2440,56 +2646,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63409</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>9534</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2501,56 +2711,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63409</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>17805</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2562,56 +2776,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63409</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>124432</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2629,56 +2847,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63409</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>124433</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2694,56 +2916,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63409</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>124434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2755,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -2774,37 +3000,37 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2816,56 +3042,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63409</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124435</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2883,56 +3113,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63409</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>124436</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2944,56 +3178,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63409</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>124437</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3005,56 +3243,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63409</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>124438</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3066,56 +3308,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63409</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>1287</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3133,56 +3379,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="X14" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63409</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>155</v>
       </c>
-      <c r="J15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K15" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" t="s">
-        <v>158</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>144</v>
-      </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3194,56 +3444,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63409</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3261,56 +3515,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63409</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7677</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3324,50 +3582,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63409</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>124439</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3385,56 +3647,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63409</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>18759</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3452,56 +3718,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63409</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>124440</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3519,56 +3789,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63409</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>124441</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3580,56 +3854,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63409</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>124442</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3641,56 +3919,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="X22" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63409</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>124443</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O23" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3708,56 +3990,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="X23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63409</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>124444</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3769,56 +4055,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="X24" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63409</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>124445</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3834,56 +4124,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63409</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>124446</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3901,56 +4195,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="X26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63409</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>124447</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3968,56 +4266,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="Y27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63409</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>124448</v>
+      </c>
+      <c r="C28" t="s">
+        <v>283</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="O28" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4029,56 +4331,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="X28" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63409</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>124449</v>
+      </c>
+      <c r="C29" t="s">
+        <v>291</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4094,56 +4400,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="X29" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63409</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>124450</v>
+      </c>
+      <c r="C30" t="s">
+        <v>300</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4155,56 +4465,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="X30" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63409</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124451</v>
+      </c>
+      <c r="C31" t="s">
+        <v>310</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="K31" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4220,56 +4534,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="X31" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63409</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>124452</v>
+      </c>
+      <c r="C32" t="s">
+        <v>317</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="J32" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4287,56 +4605,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="X32" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y32" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>63409</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>124453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>324</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4352,56 +4674,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="X33" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>63409</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>124454</v>
+      </c>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4419,56 +4745,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="X34" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y34" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>63409</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124455</v>
+      </c>
+      <c r="C35" t="s">
+        <v>339</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="O35" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4486,56 +4816,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="X35" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="Y35" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>63409</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>124456</v>
+      </c>
+      <c r="C36" t="s">
+        <v>349</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="J36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="K36" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4547,56 +4881,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="X36" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="Y36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>63409</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>124457</v>
+      </c>
+      <c r="C37" t="s">
+        <v>357</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="J37" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="K37" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4608,56 +4946,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="X37" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="Y37" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>63409</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>124454</v>
+      </c>
+      <c r="C38" t="s">
+        <v>339</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="J38" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L38" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="O38" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4673,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="X38" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39">
@@ -4692,37 +5034,37 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="L39" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="O39" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4738,56 +5080,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="X39" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="Y39" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>63409</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>124458</v>
+      </c>
+      <c r="C40" t="s">
+        <v>378</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="J40" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="K40" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="L40" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4803,56 +5149,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="X40" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="Y40" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>63409</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>124459</v>
+      </c>
+      <c r="C41" t="s">
+        <v>388</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="J41" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="K41" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="L41" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4864,56 +5214,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="X41" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="Y41" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>63409</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>124460</v>
+      </c>
+      <c r="C42" t="s">
+        <v>397</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="J42" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="K42" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="L42" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -4929,56 +5283,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="X42" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="Y42" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>63409</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>124461</v>
+      </c>
+      <c r="C43" t="s">
+        <v>405</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="K43" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="L43" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="O43" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4990,56 +5348,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="X43" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="Y43" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>63409</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>124462</v>
+      </c>
+      <c r="C44" t="s">
+        <v>414</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="J44" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="K44" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="L44" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5055,56 +5417,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="X44" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="Y44" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>63409</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124463</v>
+      </c>
+      <c r="C45" t="s">
+        <v>424</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="K45" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="O45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5116,56 +5482,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="X45" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>63409</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>124464</v>
+      </c>
+      <c r="C46" t="s">
+        <v>431</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="K46" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5177,56 +5547,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="X46" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="Y46" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>63409</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>124465</v>
+      </c>
+      <c r="C47" t="s">
+        <v>437</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="J47" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="K47" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5238,47 +5612,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="X47" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="Y47" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>63409</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124466</v>
+      </c>
+      <c r="C48" t="s">
+        <v>445</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="J48" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="K48" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="L48" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5295,56 +5673,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="X48" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="Y48" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>63409</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>124467</v>
+      </c>
+      <c r="C49" t="s">
+        <v>454</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="J49" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="K49" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="L49" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="O49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5362,47 +5744,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="X49" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="Y49" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>63409</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>2581</v>
+      </c>
+      <c r="C50" t="s">
+        <v>464</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="J50" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="K50" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="L50" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5419,56 +5805,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="X50" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="Y50" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>63409</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C51" t="s">
+        <v>473</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="J51" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="K51" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="L51" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5480,47 +5870,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="X51" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="Y51" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>63409</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>6711</v>
+      </c>
+      <c r="C52" t="s">
+        <v>483</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="J52" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="K52" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="L52" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -5537,56 +5931,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="X52" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="Y52" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>63409</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>80277</v>
+      </c>
+      <c r="C53" t="s">
+        <v>492</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="J53" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="K53" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="L53" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5598,56 +5996,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="X53" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="Y53" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>63409</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>124468</v>
+      </c>
+      <c r="C54" t="s">
+        <v>502</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="J54" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="K54" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="L54" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="O54" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5659,56 +6061,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="X54" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="Y54" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>63409</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>22665</v>
+      </c>
+      <c r="C55" t="s">
+        <v>511</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="J55" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="K55" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="L55" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5720,56 +6126,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="X55" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="Y55" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>63409</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>7018</v>
+      </c>
+      <c r="C56" t="s">
+        <v>520</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="J56" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="K56" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="L56" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5787,56 +6197,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="X56" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="Y56" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>63409</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>7005</v>
+      </c>
+      <c r="C57" t="s">
+        <v>530</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="J57" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="K57" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="L57" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -5854,56 +6268,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="X57" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="Y57" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>63409</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>124469</v>
+      </c>
+      <c r="C58" t="s">
+        <v>540</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="J58" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="K58" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="L58" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5915,56 +6333,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="X58" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="Y58" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>63409</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>124432</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="J59" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="K59" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="L59" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5976,56 +6398,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="X59" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="Y59" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>63409</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>22409</v>
+      </c>
+      <c r="C60" t="s">
+        <v>558</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="J60" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="K60" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="L60" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6043,56 +6469,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="X60" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="Y60" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>63409</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>124470</v>
+      </c>
+      <c r="C61" t="s">
+        <v>568</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="J61" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="K61" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="L61" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6108,56 +6538,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="X61" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="Y61" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>63409</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>124471</v>
+      </c>
+      <c r="C62" t="s">
+        <v>575</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="J62" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="K62" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="L62" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6173,56 +6607,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="X62" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="Y62" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>63409</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>124472</v>
+      </c>
+      <c r="C63" t="s">
+        <v>584</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="J63" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="K63" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="L63" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="O63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6238,56 +6676,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="X63" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="Y63" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>63409</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>124448</v>
+      </c>
+      <c r="C64" t="s">
+        <v>291</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="J64" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="K64" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="L64" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6303,56 +6745,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="X64" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="Y64" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>63409</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>124473</v>
+      </c>
+      <c r="C65" t="s">
+        <v>600</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
       <c r="J65" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="K65" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="L65" t="s">
-        <v>546</v>
+        <v>605</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="O65" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6368,56 +6814,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="X65" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="Y65" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>63409</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>124474</v>
+      </c>
+      <c r="C66" t="s">
+        <v>610</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="J66" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="K66" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="L66" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>556</v>
+        <v>616</v>
       </c>
       <c r="O66" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6435,56 +6885,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="X66" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="Y66" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>63409</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>124475</v>
+      </c>
+      <c r="C67" t="s">
+        <v>618</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
       <c r="J67" t="s">
-        <v>560</v>
+        <v>621</v>
       </c>
       <c r="K67" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="L67" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>556</v>
+        <v>616</v>
       </c>
       <c r="O67" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6500,47 +6954,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="X67" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="Y67" t="s">
-        <v>565</v>
+        <v>626</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>63409</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>124476</v>
+      </c>
+      <c r="C68" t="s">
+        <v>627</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="J68" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="K68" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="L68" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -6567,56 +7025,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="X68" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="Y68" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>63409</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>124477</v>
+      </c>
+      <c r="C69" t="s">
+        <v>634</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>572</v>
+        <v>635</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
       <c r="J69" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="K69" t="s">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="L69" t="s">
-        <v>576</v>
+        <v>639</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="n">
@@ -6634,47 +7096,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="X69" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
       <c r="Y69" t="s">
-        <v>580</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>63409</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>124478</v>
+      </c>
+      <c r="C70" t="s">
+        <v>644</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="J70" t="s">
-        <v>583</v>
+        <v>647</v>
       </c>
       <c r="K70" t="s">
-        <v>584</v>
+        <v>648</v>
       </c>
       <c r="L70" t="s">
-        <v>585</v>
+        <v>649</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
@@ -6701,56 +7167,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="X70" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
       <c r="Y70" t="s">
-        <v>586</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>63409</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>124479</v>
+      </c>
+      <c r="C71" t="s">
+        <v>651</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>588</v>
+        <v>653</v>
       </c>
       <c r="J71" t="s">
-        <v>589</v>
+        <v>654</v>
       </c>
       <c r="K71" t="s">
-        <v>590</v>
+        <v>655</v>
       </c>
       <c r="L71" t="s">
-        <v>591</v>
+        <v>656</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>592</v>
+        <v>657</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6762,56 +7232,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>593</v>
+        <v>658</v>
       </c>
       <c r="X71" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="Y71" t="s">
-        <v>595</v>
+        <v>660</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>63409</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>44072</v>
+      </c>
+      <c r="C72" t="s">
+        <v>661</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>597</v>
+        <v>663</v>
       </c>
       <c r="J72" t="s">
-        <v>598</v>
+        <v>664</v>
       </c>
       <c r="K72" t="s">
-        <v>599</v>
+        <v>665</v>
       </c>
       <c r="L72" t="s">
-        <v>600</v>
+        <v>666</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -6829,13 +7303,13 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>593</v>
+        <v>658</v>
       </c>
       <c r="X72" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="Y72" t="s">
-        <v>602</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_73.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_73.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,159 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Latasha W</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r604230205-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>56882</t>
+  </si>
+  <si>
+    <t>6865341</t>
+  </si>
+  <si>
+    <t>604230205</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This Comfort Inn was perfect for me and my daughter. Everyone was polite, accommodating, and lovely. The beds were very comfortable, everything in the room was a great shape, and the breakfasts were fresh, hot and tasty (fresh scrambled eggs and bacon/sausage as well as waffles etc.). The hotel is a great value and we were delighted!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r525401129-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>525401129</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Worth it!</t>
+  </si>
+  <si>
+    <t>Any time that I end up visiting Fort Worth I choose Comfort Inn and for real it is very comfort. Hotel is great hotel, staff is very friendly and they offer warm hospitality, nice rooms and very clean. The breakfast was great, fresh and well done.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Nolen M, General Manager at Comfort Inn &amp; Suites Fort Worth West, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Any time that I end up visiting Fort Worth I choose Comfort Inn and for real it is very comfort. Hotel is great hotel, staff is very friendly and they offer warm hospitality, nice rooms and very clean. The breakfast was great, fresh and well done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r599407558-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>599407558</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Downtown FW is wonderful and this hotel is right there</t>
+  </si>
+  <si>
+    <t>You can walk to 100s of restaurants, the water gardens, or read the historical markers.  The hotel is very clean, my room was nice, and the breakfast is great. It is a very good deal for the money. I'll stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Harmony H, Manager at Comfort Inn &amp; Suites Fort Worth West, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>You can walk to 100s of restaurants, the water gardens, or read the historical markers.  The hotel is very clean, my room was nice, and the breakfast is great. It is a very good deal for the money. I'll stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r596813626-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>596813626</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Breakfast late! Unfriendly front desk help!</t>
+  </si>
+  <si>
+    <t>I stayed here one night. The older lady at the front desk is not friendly at all! They say that there is two bellman carts, but I only saw one. The next morning I had to go look for it. I found it on the 3rd floor. They need more carts with a 4 story hotel. The water pressure was kind of low, and the hot water is not as hot as it should be. They said breakfast started at 5:30, but there was almost nothing out at 5:30. Everything was not out until about 5:52. They had no whole wheat bread, and no bananas. The potatoes were cold. The lady that was making breakfast was also running the front desk. There was nobody at the front desk when I checked out. The ladies husband was helping to cook the eggs, but it was obvious he did not work there. The rooms are nice, but the friendliness, and service is horrible!MoreShow less</t>
+  </si>
+  <si>
+    <t>Harmony H, Manager at Comfort Inn &amp; Suites Fort Worth West, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed here one night. The older lady at the front desk is not friendly at all! They say that there is two bellman carts, but I only saw one. The next morning I had to go look for it. I found it on the 3rd floor. They need more carts with a 4 story hotel. The water pressure was kind of low, and the hot water is not as hot as it should be. They said breakfast started at 5:30, but there was almost nothing out at 5:30. Everything was not out until about 5:52. They had no whole wheat bread, and no bananas. The potatoes were cold. The lady that was making breakfast was also running the front desk. There was nobody at the front desk when I checked out. The ladies husband was helping to cook the eggs, but it was obvious he did not work there. The rooms are nice, but the friendliness, and service is horrible!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r596484342-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>596484342</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>Room was wonderful: comfortable bed, great air conditioner, clean!  Breakfast was good!  Would stay there again.  Close to lots of activities! We went to Fort Worth for a reunion!  Also went to see a movie at an awesome theater at the mall. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Room was wonderful: comfortable bed, great air conditioner, clean!  Breakfast was good!  Would stay there again.  Close to lots of activities! We went to Fort Worth for a reunion!  Also went to see a movie at an awesome theater at the mall. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r596408396-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>596408396</t>
+  </si>
+  <si>
+    <t>Best sleep in a while !</t>
+  </si>
+  <si>
+    <t>I slept in until 10:30 and usually wake up at 9! These beds are wonderful with a great assortment of pillows and the sheets smelled freshly clean. The  room was very clean and I felt good about staying there. The staff was very friendly  and I will definitely be coming back !MoreShow less</t>
+  </si>
+  <si>
+    <t>I slept in until 10:30 and usually wake up at 9! These beds are wonderful with a great assortment of pillows and the sheets smelled freshly clean. The  room was very clean and I felt good about staying there. The staff was very friendly  and I will definitely be coming back !More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r583049309-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
-    <t>56882</t>
-  </si>
-  <si>
-    <t>6865341</t>
-  </si>
-  <si>
     <t>583049309</t>
   </si>
   <si>
@@ -174,49 +312,19 @@
     <t>The fromt desk clerk was amazing</t>
   </si>
   <si>
-    <t>They were having computer issues and the lady in front of me was talking too the agent very badly complaining and being very rude.the agent gretted her with a smile and the genuinely comcern she had showed.. One thing i can say is she kept her cool and assisted the womans every need. Latasha was very helpful and friendly. I will return,you guys are very professional and can handle any sittuation.</t>
+    <t>They were having computer issues and the lady in front of me was talking too the agent very badly complaining and being very rude.the agent gretted her with a smile and the genuinely comcern she had showed.. One thing i can say is she kept her cool and assisted the womans every need. Latasha was very helpful and friendly. I will return,you guys are very professional and can handle any sittuation.MoreShow less</t>
   </si>
   <si>
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>SkenderBeg_Easy</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r525401129-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
-  </si>
-  <si>
-    <t>525401129</t>
-  </si>
-  <si>
-    <t>09/18/2017</t>
-  </si>
-  <si>
-    <t>Worth it!</t>
-  </si>
-  <si>
-    <t>Any time that I end up visiting Fort Worth I choose Comfort Inn and for real it is very comfort. Hotel is great hotel, staff is very friendly and they offer warm hospitality, nice rooms and very clean. The breakfast was great, fresh and well done.MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Nolen M, General Manager at Comfort Inn &amp; Suites Fort Worth West, responded to this reviewResponded September 20, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 20, 2017</t>
-  </si>
-  <si>
-    <t>Any time that I end up visiting Fort Worth I choose Comfort Inn and for real it is very comfort. Hotel is great hotel, staff is very friendly and they offer warm hospitality, nice rooms and very clean. The breakfast was great, fresh and well done.More</t>
-  </si>
-  <si>
-    <t>Andrea H</t>
+    <t>Harmony H, Manager at Comfort Inn &amp; Suites Fort Worth West, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>They were having computer issues and the lady in front of me was talking too the agent very badly complaining and being very rude.the agent gretted her with a smile and the genuinely comcern she had showed.. One thing i can say is she kept her cool and assisted the womans every need. Latasha was very helpful and friendly. I will return,you guys are very professional and can handle any sittuation.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r578531291-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
@@ -237,21 +345,15 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Harmony H, Manager at Comfort Inn &amp; Suites Fort Worth West, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Harmony H, Manager at Comfort Inn &amp; Suites Fort Worth West, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
   </si>
   <si>
     <t>Very nice property and extremely friendly staff.  Relatively new and very clean.  Great location as you head west to avoid the DFW traffic the next day.  Lots of dinner options and shopping fairly close by.More</t>
   </si>
   <si>
-    <t>Crystal P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r575198210-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -267,18 +369,15 @@
     <t>My husband and I stayed here this past weekend when we got married. We also had family from out of town who stayed here. Everything was perfect and the staff was awesome. When we got back to our room after the wedding there were rose petals on the floor, a gorgeous bouquet of roses on the dresser and roses and roses petals on the bed along with a note from the staff. The whole experience was an A+. Thank you Harmony and staff for everything!!!MoreShow less</t>
   </si>
   <si>
-    <t>Harmony H, Manager at Comfort Inn &amp; Suites Fort Worth West, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Harmony H, Manager at Comfort Inn &amp; Suites Fort Worth West, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
   </si>
   <si>
     <t>My husband and I stayed here this past weekend when we got married. We also had family from out of town who stayed here. Everything was perfect and the staff was awesome. When we got back to our room after the wedding there were rose petals on the floor, a gorgeous bouquet of roses on the dresser and roses and roses petals on the bed along with a note from the staff. The whole experience was an A+. Thank you Harmony and staff for everything!!!More</t>
   </si>
   <si>
-    <t>grandpopbk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r574423414-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -303,9 +402,6 @@
     <t>Rooms are clean, hotel staff is friendly and amenities super. Great place to stay. I stayed here before and was glad to be able to stay again this year. The maintenance man Joe is such a friendly person, he was glad to see us come back. The breakfast in the morning is just enough to get you day started. Would recommend this Comfort Inn to any looking for a place to stay. Easy access to a main highway. Only 15 minutes from the Fort Worth convention center.More</t>
   </si>
   <si>
-    <t>SafetyDave1986</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r573094713-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -330,9 +426,6 @@
     <t>I have now stayed at this property three times in the last four years.  All three visits have been very satisfactory.  Access is easy, parking is ample, and the rooms are comfortable.  I stay on the Scott Street side and never hear any road noise.  You get some aircraft noise from the naval air station, but it doesn't amount to much.  I set my HVAC to Auto.  It did not come on all night and the room was very quiet.On this trip I realized that I had forgotten to print off a document I needed for the seminar I was to conduct.  I e-mailed it to myself but couldn't get the business center printer to print it.  The desk clerk had me e-mail it to her, and she printed it and made 40 copies.  This made my trip much more successful.More</t>
   </si>
   <si>
-    <t>gwenivereb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r569480038-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -381,9 +474,6 @@
     <t>friendly staff, great breakfast area and great food  fridge in room microwave  roomd were huge  nice outdoor pool , shopping close by and restraunts in walking distance , laundry facility on site  we were waiting for the arrival of our grandson, close to downtown fortworth maybe 8 to 10 min drive. Great price !!More</t>
   </si>
   <si>
-    <t>archiphoto</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r563459422-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -408,9 +498,6 @@
     <t>I constantly travel and typically just need a place to work, sleep, and is convenient to food.  This was perfect and affordable.  The surroundings are quiet and the help desk was very friendly.  The room was perfect: clean room, comfortable beds, hot shower, working TV and internet.  Breakfast was average but you get what you pay for.  There's an IHOP right next door which I walked to have dinner.  Would stay here in a heartbeat.More</t>
   </si>
   <si>
-    <t>ritahP5906VI</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r553925919-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -438,9 +525,6 @@
     <t>This was the last leg of our Texas trip. We wanted to visit the Stock yards and see the rodeo’s. The only complaint was the eggs for breakfast. They were laying in water and my boyfriend was frustrated. Out of three night stay, we only ate breakfast once. I had a bagel and after a long wait and one look at the eggs, he had cereal. Other than that, we had friendly service and a clean quiet room.More</t>
   </si>
   <si>
-    <t>CJEdmo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r550903987-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -465,9 +549,6 @@
     <t>We are traveling through Texas in search of warmer weather.  We found this facility very clean and welcoming. Our room was spacious and very comfortable. We had a very nice sitting area - one of the best we have had. Bed was firm and comfortable and the pillows were just right. Great stay. Thank you. More</t>
   </si>
   <si>
-    <t>Deranda D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r549581641-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -498,9 +579,6 @@
     <t>I must say that this one-night hotel stay really exceeded expectations. The comfortability of the bed  gave the best warm and cozy. The amenities and the design of the room was so great, including the view. Harmony at the front desk was very special with attending our needs.More</t>
   </si>
   <si>
-    <t>Mark G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r549499877-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -516,9 +594,6 @@
     <t>We had an impromptu extended stay due to some unforeseen medical concerns from 12/7/17 – 12/28/17.  Corporate [Michelle] and local [Nolan &amp; Harmony] management went above and beyond to ensure a pleasant stay; they were excessively generous, hospitable, and friendly!  It is clear that this management team has created a culture that values its members – which translates to an all-around phenomenal stay for its guest!  Upon arrival, we connected immediately with Harmony [Assistant Manager]; she welcomed us with open arms and expressed a tremendous amount of love for our family.  Just 12 hours after checking in, Harmony had already purchased gifts for our kids – she connected beautifully with our entire family and would regularly come up and check on us, asking by name, how everyone was doing.  We always enjoyed visiting with Joe [housekeeping manager, maintenance, cook, security, concierge, jack of all trades] and enjoyed a lunch with him of Christmas.  Joe has an extreme work ethic and is customer centered – always willing to go the extra mile to ensure a pleasant stay; and always with a smile!  We praise the housekeeping ladies who were very efficient and meticulous.  Louise, Nancy, Mary, Thomas and the rest of the front desk workers shared the customer centered vison; always greeting us with a smile, asking about how our family/stay was, and what they could do to improve our visit.  As a family of five [children 4 ½, 3, and...We had an impromptu extended stay due to some unforeseen medical concerns from 12/7/17 – 12/28/17.  Corporate [Michelle] and local [Nolan &amp; Harmony] management went above and beyond to ensure a pleasant stay; they were excessively generous, hospitable, and friendly!  It is clear that this management team has created a culture that values its members – which translates to an all-around phenomenal stay for its guest!  Upon arrival, we connected immediately with Harmony [Assistant Manager]; she welcomed us with open arms and expressed a tremendous amount of love for our family.  Just 12 hours after checking in, Harmony had already purchased gifts for our kids – she connected beautifully with our entire family and would regularly come up and check on us, asking by name, how everyone was doing.  We always enjoyed visiting with Joe [housekeeping manager, maintenance, cook, security, concierge, jack of all trades] and enjoyed a lunch with him of Christmas.  Joe has an extreme work ethic and is customer centered – always willing to go the extra mile to ensure a pleasant stay; and always with a smile!  We praise the housekeeping ladies who were very efficient and meticulous.  Louise, Nancy, Mary, Thomas and the rest of the front desk workers shared the customer centered vison; always greeting us with a smile, asking about how our family/stay was, and what they could do to improve our visit.  As a family of five [children 4 ½, 3, and Newborn], we feared how the hotel stay would impact our Christmas traditions.  Being beautifully decorated for the Christmas season, and because of the hospitality of this location, we not only were able to continue our family traditions, but also start new traditions that we will look forward to for the years to come.  We highly recommend this location to our family and friends, and look to utilize it in the future for further medical treatment(s).Mark G.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r547744890-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -537,9 +612,6 @@
     <t>I checked into this hotel and had mostly great experiences. As I was running late for my wedding, I asked Harmony at the front desk where the business center was and she quickly told me. The printer seemed to not be connecting to the computer so as I was anxious, I gave up. As I was walking out the front door, Harmony stopped me and asked if I had gotten the printed documents I needed and I told her no. She was kind enuff to print them from the front desk for me without any problems. I was quite grateful for her help and would recommend this hotel to anyone. More</t>
   </si>
   <si>
-    <t>David G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r538918130-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -567,9 +639,6 @@
     <t>Slight problem on our end with the reservations, but Mary at the front desk fixed it quickly and perfectly, even got us a first floor room, perfect for my aching back.  Room was clean, comfortable, and surprisingly quiet for being right next to the pool.  Mary was there for everything we needed.  Look her up if you come by!  you'll be sure to get a great experience.More</t>
   </si>
   <si>
-    <t>CarolynChester</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r529258995-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -588,9 +657,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>Crissy J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r504611306-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -618,9 +684,6 @@
     <t>Spent one night at the Comfort Inn &amp; Suites FW West after a 20 yr reunion near the FW Botanic garden. Although the surrounding area didn't look that great we returned around 2am on a Saturday night and had no issues within the hotel parking lot. Hotel was a pleasant surprise and had nice lobby and dining/seating areas. It seemed new or recently remodeled. Our room was clean and nicely decorated. The bed was comfortable and there was a nice breakfast selection. An internet search led us to a nearby restaurant, grocery store &amp; movie theater. There was an indoor trampoline place next door and a Chuck E Cheese across the street so would be convenient for those with kids. Had an outdoor pool, although we did not use it. Front desk associate was friendly. My husband arrived before me around noon and they were able to get a room ready for him to check in early which was much appreciated. Checkout was effortless. I would stay at this hotel again if I needed to be in the area and recommend it to others.More</t>
   </si>
   <si>
-    <t>Cathy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r502883430-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -645,9 +708,6 @@
     <t>Friendly staff, spacious room and comfortable bed. Everything felt new and clean, bathroom in great working order, AC perfect, and probably one of the best complimentary breakfasts weve found for this class of hotel. The pantry manager was available and we saw him take care of guest questions and restock food before anyone knew it needed to be done. Location is not as convenient to restaurants, attractions,etc. - but quick access to I30 makes it easy to get around.Definiitey recommend and would stay again.More</t>
   </si>
   <si>
-    <t>glwadeod</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r499767933-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -672,9 +732,6 @@
     <t>Really about a 3.5.  Nice employees, nice room.  The place could have been vacuumed better.  Wifi was bad.  Good location for our trip.  TV didn't work for us, but we didn't need it anyway.  Plenty of parking out back, the entrance was a little awkward.  I'll stay again if I am in the area.More</t>
   </si>
   <si>
-    <t>kellztwin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r494096797-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -699,9 +756,6 @@
     <t>We stayed at this hotel for 4 nights. Rooms and bathrooms were very clean. AC worked great. Location is ok, not many places to eat with ing walking distance but several just a short drive. I would stay again.More</t>
   </si>
   <si>
-    <t>bre e</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r493863600-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -726,9 +780,6 @@
     <t>New hotel modern decor furnishings &amp; flooring Very nice clean comfortable Large spacious roomsBed very comfortable quality mattress Convenient location near shopping &amp; restaurants Front desk staff very nice &amp; friendlyMore</t>
   </si>
   <si>
-    <t>beach-dreamDenver</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r487094571-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -759,9 +810,6 @@
     <t>Room was clean, bed was comfortable, breakfast is fine, microwave and fridge in the room.  I was a bit concerned when I first checked in since the front door was locked.  The lady behind the counter opened it for me and said she felt more comfortable with it being locked so I was worried I was in a bad area but I never felt unsafe at the hotel and I was traveling alone. I was on the 3rd floor and did have one night with loud people above me but that isn't the hotel's fault.  I was right near the elevator too and I could hear it ding so I would suggest the 4th floor and away from the elevator.  I might check out another hotel the next time I'm there but would also stay here again.More</t>
   </si>
   <si>
-    <t>Perry P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r485561800-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -786,9 +834,6 @@
     <t>Nothing about the hotel stands out as wow or amazing. It is a good place to stay. Our family had three rooms and everyone was happy with their room. The beds were comfortable, not fantastic. The rooms were fairly large. We had a suite. My only complaint was the sofa. It was uncomfortable to sit on.Every employee we encountered was polite and helpful. The breakfast was what we expected after reading other reviews. The parking is good. You will drive a little to get to any restaurants or attractions, but nothing is too far away. Overall, we would stay there again. I would recommend this hotel especially if you are passing through on I-30.More</t>
   </si>
   <si>
-    <t>kristi4shopping</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r478573727-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -816,9 +861,6 @@
     <t>We had a very disappointing experience in Dec. 2016 but after speaking to the manager last time decided to give this hotel another chance.  This time there was bodily fluids on the dust ruffle, a bunch of paint missing from the toilet seat, the towel bar fell off the wall while we were watching TV &amp; nothing was hanging on it, the bathroom vanity was broken, the AC cover was broken, &amp; the room was very dusty.  This hotel is only 3 years old &amp; it's falling apart!  It's heartbreaking really.  The breakfast was average.More</t>
   </si>
   <si>
-    <t>renaissancegal45</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r462372502-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -846,9 +888,6 @@
     <t>I stayed in this property for one overnight, with my teenage daughter.  The room was spacious and nice, and it was very handy to have a refrigerator and microwave.  The staff was very friendly and helpful.  Breakfast was good - not extensive or exciting, but fine, with waffles you can make fresh, and standard fare eggs.  The dining area is quite nice, as it the lobby area, in general.  There isn't a huge supply of restaurants in the area, although it is less than 15 minutes drive to areas with more restaurants to offer, and also a large mall with movie theaters, etc. On either side of the hotel, there are major roadways, so the traffic noise was more significant than we anticipated, and is something to bear in mind.  No significant aircraft noise, during our stay (unlike some properties in this general area due to the air base).More</t>
   </si>
   <si>
-    <t>mossy48</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r461840924-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -867,9 +906,6 @@
     <t>We stayed in this hotel for two nights. It was very quiet and clean. The breakfast was very good with additional items such as biscuits, gravy and freshly prepared eggs.The bedding was very comfortable. It was easily accessible to the interstate.More</t>
   </si>
   <si>
-    <t>trudyb62</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r457765101-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -891,9 +927,6 @@
     <t>Nice place Rooms were fine and they were clean They were very pleasant and I felt safe there. Any questions I had they would answer for me. Walking distance to a few stires to shop. Wasnt too hard to find eitherMore</t>
   </si>
   <si>
-    <t>MEBFL8</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r449456759-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -918,9 +951,6 @@
     <t>I have been checking in every Monday and checkout Thursday for a couple of years now and all I can say is Mary is absolutely a pleasure to see each Monday night. I'm welcomed like I've come home. The property is new and wonderfully clean. Louise handles my reservations each week with a smile and greets me each morning. That is service you just can't touch anywhere in the Fort Worth area. I highly recommend to anyone looking for a hotel in the area to book here.More</t>
   </si>
   <si>
-    <t>nangels4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r446312912-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -948,9 +978,6 @@
     <t>We had a great time. Mary and Lousie were great, wonderful front desk relations, they were so very helpful, from reservation to check out, anything you needed they were there. Along with Joe and the whole housekeeping staff. We will definitely stay again. More</t>
   </si>
   <si>
-    <t>billylansdell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r442484288-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -969,9 +996,6 @@
     <t>I have been staying  here 2 to 4 nights a week since late January and am astonished at how week after week I receive excellent service. Just last night Mary welcomed me with a big friendly smile and had me in a great room in minutes!More</t>
   </si>
   <si>
-    <t>Richie E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r442423150-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -990,9 +1014,6 @@
     <t>Clean and friendly place to stay, everyone who works here is awesome. The people are friendly and very helpful. I would certainly stay here again. Food was great and very tasty.  next year I will be back!More</t>
   </si>
   <si>
-    <t>Coconutkelly26</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r435490095-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +1032,6 @@
     <t>We had multiple reservations coming in for a business trip. Mary at the front desk was amazing during check in as our reservations were mixed up (our mistake). She got us sorted out and taken care of. The room was nice and updated. The shower was hot and has multiple shower head setting which was nice after driving all day.More</t>
   </si>
   <si>
-    <t>GFFriend</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r429748003-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1035,9 +1053,6 @@
     <t>We usually try to stay in a Comfort Inn &amp; Suites when on the road because we can usually count on them to be efficient and clean.  This was no exception.  Mary, and all of the other desk staff, were friendly and courteous.  Housekeeping did a good job.  The bed and pillows were comfortable.  This appears to be an older hotel that has been refreshed somewhat.  It does have a few drawbacks; like very poor water pressure and even though just off a major highway, it is located in a somewhat out of the way area for dining, shopping, etc. If a woman has long hair, the water pressure is such that it would take quite some time to get the shampoo/conditioner rinsed out.  There is a Wendy's across the street, a Subway about a block away, but otherwise one has to drive to an area that has WalMart, Albertsons, Chili's, and a few other restaurants--an easy drive, about 4-5 miles away.  The area nearby appears to be suffering a bit economically, but we felt safe.  We stayed there several days, and even with the drawbacks, we would stay there again.  Quite comfortable.More</t>
   </si>
   <si>
-    <t>BNADFW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r409706730-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1065,9 +1080,6 @@
     <t>I have stayed at the property three times and am surprised at how dedicated some of the staff is - Louise, Nancy and I think his name is Joe - he does a little bit of everything from cleaning rooms to cooking breakfast and sometimes puts in 15 hours days - they were all so helpful to me when I was there July 21 - August 1.  The down side, and this is huge, is that my dad died, and I really needed the business center to write Dad's obituary and eulogy, not to mention look up the massive amounts of phone numbers I needed to call.  The manager and weekend staff could have cared less (the weekend clerk told me to go to the library) while the manager let me use a laptop that lasted me 2 and a half hours, but did not leave me a cord and then left for the weekend.  While I appreciate him giving me the laptop, I really needed full time use of a computer, when he refused to fix.  He said he was being billed for something he didn't get and he refused to pay them - at the expense of losing an otherwise happy guest.  I didn't get my eulogy written (my handwriting is horrible and my hands cramp, so longhand was just too much) and I had to do it from memory and while Dad would have been happy with...I have stayed at the property three times and am surprised at how dedicated some of the staff is - Louise, Nancy and I think his name is Joe - he does a little bit of everything from cleaning rooms to cooking breakfast and sometimes puts in 15 hours days - they were all so helpful to me when I was there July 21 - August 1.  The down side, and this is huge, is that my dad died, and I really needed the business center to write Dad's obituary and eulogy, not to mention look up the massive amounts of phone numbers I needed to call.  The manager and weekend staff could have cared less (the weekend clerk told me to go to the library) while the manager let me use a laptop that lasted me 2 and a half hours, but did not leave me a cord and then left for the weekend.  While I appreciate him giving me the laptop, I really needed full time use of a computer, when he refused to fix.  He said he was being billed for something he didn't get and he refused to pay them - at the expense of losing an otherwise happy guest.  I didn't get my eulogy written (my handwriting is horrible and my hands cramp, so longhand was just too much) and I had to do it from memory and while Dad would have been happy with it, I was not.  But Nancy was so kind, she even gave me a sympathy card and Louise and Joe were also making sure I had whatever I needed.  I was disappointed to learn, however, that the housekeepers were not changing my sheets but just making the bed.  After suspecting that, I marked the sheets, and sure enough, they were not getting changed.  when I told Joe, they were definitely changed that night!  I will probably stay there again, since I like having someone on staff that knows who I am, but the manager leaves a lot to be desired as does the housekeeping staff.More</t>
   </si>
   <si>
-    <t>Shanan W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r383539740-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1089,9 +1101,6 @@
     <t>This is a very nice place to stay for the price!  Rooms are spacious, clean and modern.  The beds are big &amp; comfy. The breakfast is always good and staff is courteous &amp; friendly.  The outdoor pool was clean.  Great place for a family get away. We will def stay again.More</t>
   </si>
   <si>
-    <t>Deron P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r380570767-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1152,9 +1161,6 @@
     <t>I was in a hurry and booked this hotel instead of one closer to where I needed to go. Very well kept and on my way back through stayed there again. A 3 star hotel very well suited for a short stopover and one of the best values for money I have found in a while.More</t>
   </si>
   <si>
-    <t>GoGators4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r368289395-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1182,9 +1188,6 @@
     <t>Our family stayed at this hotel and to my surprise it was a very experience. The desk employees were very professional and helpful which always a great thing when you're spending time at a hotel. In particular, there was a young lady at the desk by the name of India. She was so helpful and personable with all the customers. I noticed she was really excited about helping customers. She helped me in making my experience a great one. Thanks Comfort Inn employees.More</t>
   </si>
   <si>
-    <t>sierra456</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r362419779-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1209,9 +1212,6 @@
     <t>Comfy, clean, and affordable! The room was very spacious and clean. The staff was exceptional! Very friendly and kind, really made me feel welcome during my stay. The breakfast options that are offered here are very good as well. Great experience from the moment I checked in to the moment I checked out. Will be staying here again in the future. More</t>
   </si>
   <si>
-    <t>gmgidhome</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r362283843-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1233,9 +1233,6 @@
     <t>Room overall was pretty good, but there were some issues:- Horrible Wifi.- Poor water pressure.- Loud housekeepers.- Broken elevator.- Breakfast was not great.- Location is a bit hard to get to. I expected a bit higher quality for what I paid.More</t>
   </si>
   <si>
-    <t>TomassoJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r355236756-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1260,9 +1257,6 @@
     <t>I stayed here for 2 nights and was pleasantly surprised. I arrived too early as it was raining so I just wanted to get indoors, the kind gentleman at the desk let me check in 3 hours before I was meant to, which really helped and I was grateful for.The location - at the moment, Cherry St is being dug up, so there is a small detour when you come off I30 but it's well signposted and easy to follow. It's next to an iHOP and across the road from a Chuckie Cheese (if you have kids that like that kind of thing)First Impressions - the hotel is very clean and modern. The staff are friendly.The room - I stayed in a room on the 1st floor (102) and it was really big. The room was clean and had everything I required.The breakfast - this was served 6-10 at weekends and you could have waffles, some hot food (sausage, egg etc), toast, cereal, pastry, fruit, juice and coffee. Was enough to have a good start to the day.All in all, I would highly recommend the hotel. It's on the outskirts of Fort Worth, however it's only a 30 minute drive to get to the touristy places at most.More</t>
   </si>
   <si>
-    <t>KevEola</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r344359521-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1290,9 +1284,6 @@
     <t>The construction quality and room amenities (mini-fridge,  microwave) were nicer than expected for a budget hotel. Friendly front-desk staff; good variety of items as part of the free breakfast buffet!  Will definitely return to this hotel on our next trip visiting family on the westside of Ft Worth!I will add that this is the first time I've had a room with both soft and firm pillows. Never had a choice like this before. Very impressive!More</t>
   </si>
   <si>
-    <t>AZMesaFamily</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r342188920-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1311,9 +1302,6 @@
     <t>This hotel is just what you would expect from a Comfort Suites. Checkin: was fast and friendlyRoom: hot water was not very hot for a bathBreakfast: all the usual like waffles, biscuits &amp; gravy, yogurt, bread, juices... The usual. Checkout: was just as easy as checkinMore</t>
   </si>
   <si>
-    <t>MB F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r342086988-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1329,9 +1317,6 @@
     <t>Great hotel- but request a room FAR from the ice machine! Our king room was spacious and clean however the ice machine was directly across the hall and it was EXTREMELY noisy. Otherwise I'd stay here again. Great price and location. (*Bring your own pillow)More</t>
   </si>
   <si>
-    <t>clauckn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r333850278-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1353,9 +1338,6 @@
     <t>I was really impressed with the size of the room and the updated feel to it. It had nice finishes and furniture. The hotel staff was amazing and went above and beyond when the cable box went out in my room. They immediately found me another room and offered assistance to help me move from one room to the other. The location is close to multiple places to shop and eat. I was very happy with my stay and would definitely stay here again if I travel back through. More</t>
   </si>
   <si>
-    <t>parrishgr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r331123343-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1380,9 +1362,6 @@
     <t>India at the front desk was great. very nice, helpful and professional.she has a big nice smile and made me feel welcomed she was good with recommendations and directions as well.keep up the good work India! I would definitely come back againMore</t>
   </si>
   <si>
-    <t>AlistairCoy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r323758898-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1410,9 +1389,6 @@
     <t>I have no hesitation in recommending this as a good place to stay and will detail the two improvements in a moment.The welcome was great and particular thanks to Elena for sorting a minor problem. The room was immaculate in every aspect, the breakfast was typical fayre but perfectly acceptable and 24 hour great coffee was always available.What they need to change/improve is the water pressure which was very poor and the supposed high speed internet which reminded me of the old days for those who remember of 56k dial up!!  Get these sorted and it would be a 5* review.  That said, please don't let these two issues stop you booking here.  It is a nice place to stay and very convenient for Fort Worth.More</t>
   </si>
   <si>
-    <t>Frank C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r319852661-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1437,9 +1413,6 @@
     <t>Is was excellent and service and every one and nice clean And sims family in Joy nice stay and Customers service Excellent and people nice helpful and beth was clean and Down Lobby was clean and poolsMore</t>
   </si>
   <si>
-    <t>John S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r313903644-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1467,9 +1440,6 @@
     <t>This is my first time here. The staff at check-in was very warm and welcoming. The rooms are super nice and the outside pool was nice to use also. This hotel is 14 months old and it is kept nicely. Breakfast was good too. Try it and I think you will like it!More</t>
   </si>
   <si>
-    <t>andcondeb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r311162408-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1494,9 +1464,6 @@
     <t>Clean and comfortable place. One of the friendliest hotels I have been to . The young girl India I think her name is was lovely , very helpful and informative . A credit to the company. Breakfast was plentiful , hit and cold buffet. Free coffee in reception 24 hours. Good location for jfk and Dallas Cowboys stadium and the stock yards and outlet shops. Would definately recommend and stay here again .More</t>
   </si>
   <si>
-    <t>Ricky O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r305412531-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1524,9 +1491,6 @@
     <t>Great place to stay. On hand staff was excellent! Was greeted with a smile at check in and check out. Breakfast was eggs sausage gravy waffles, not the usual continental. Definitely would recommend staying at this choice hotel!More</t>
   </si>
   <si>
-    <t>Zach H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r302918774-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1551,9 +1515,6 @@
     <t>Needed a hotel at the last minute for myself and my 3 month old.Pros: Room was very clean, staff was very helpful and friendly, free breakfast was good. Wasn't five star, but it was good for free breakfast.Cons: Room did not have blinds to block sunlight, water pressure from bathroom sink was non existent, Cable TV kept going in and out which required me to repeatedly have to reset the cable box. Front desk did give me $10 off room for this problem.Cons may seem like they outweigh the pros, but it's only an honest review. I was stuck in a bind, got a last second room with good service. What more can I ask for?Would I go back? Yeah, it was clean and comfortable. Compared to the surrounding hotels, it was excellent.More</t>
   </si>
   <si>
-    <t>Greg D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r296503287-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1578,9 +1539,6 @@
     <t>Very nice, clean, comfortable lodging.  India, was a new employee and was a terrific front desk hostess.  Kyle and the rest of the staff as well.  Spent 2 nights there.  So clean !  Safe area to stay in. close to everything you might want to see in Ft Worth.More</t>
   </si>
   <si>
-    <t>Dawn S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r291796009-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1608,9 +1566,6 @@
     <t>My husband and I have traveled for the last 3 yrs. weekly, was the best comfort inn we have ever been to,  was clean, the room was clean, the staff was amazing. we will continue to stay at this one when we are in the area.More</t>
   </si>
   <si>
-    <t>Mike P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r283362368-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1638,9 +1593,6 @@
     <t>We were in Ft Worth for a baseball tournament and were scheduled to stay at the hotel for several days. But the first 2 days were rained out so the entire team had to cancel the first 2 days stay.The hotel staff were very accommodating and friendly.The hotel was very clean and fresh.We will definitely stay here again in the future.Wonderful stay!More</t>
   </si>
   <si>
-    <t xml:space="preserve">Byron1boykin </t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r278315093-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1692,9 +1644,6 @@
     <t>This is a very nice property: clean, well-run and quiet.  I stayed on the Scott Street side and heard no road noise at all.  There is some noise from aircraft taking off from and landing at the nearby naval air station, but this stopped at a reasonable hour.  Breakfast was good, too.More</t>
   </si>
   <si>
-    <t>Denise L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r266241521-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1722,9 +1671,6 @@
     <t>Waiting for home to be built and nowhere to go? Comfort Inn in White Settlement has been the perfect choice for us! We were able to secure a suite with a kitchenette and comfortable King size bed, for a great price. The staff has been very accommodating and housekeeping is such a delight. The rooms are clean, updated, and quiet. Facilities include a laundry room. work out room, and a hot breakfast every day until 9:00 AM. Highly recommend this place.More</t>
   </si>
   <si>
-    <t>Kristy P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r266167865-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1743,9 +1689,6 @@
     <t>The pictures don't lie, this place is very clean and nice, quiet, new, very kind happy staff and everything you could want for a business trip, of visit, affordable, internet works great--- great find--- Ill be back.More</t>
   </si>
   <si>
-    <t>MKM78163</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r265735517-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1770,9 +1713,6 @@
     <t>Staff was very friendly and helpful. Room was clean, everything worked, decor was modern and up to date. The property appears to be pretty new. The free breakfast was good, with many hot and cold choices. Location is easy to get in and out of. Traffic was light even during Friday afternoon/evening rush hour. There is a Naval Air Station within a mile. We stayed Friday thru Sunday and only heard one jet, and it was during daylight hours. Would definitely stay here again.More</t>
   </si>
   <si>
-    <t>nbrewer2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r261328180-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1818,9 +1758,6 @@
     <t>I have had the privilege of being a repeat customer at this Comfort Inn in White Settlement and the experience has been so outstanding I always choose it over many large name brand hotels. The hotel is new and clean and the staff is outstanding. In fact the staff deserves an extra shoutout. All have been welcoming and extremely helpful even when arriving very late. The rooms are large, modern and the bedding is the best around. Always a great nights sleep. The location is close to downtown and I highly recommend staying here.More</t>
   </si>
   <si>
-    <t>MrKristof</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r244587911-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1848,9 +1785,6 @@
     <t>I chose this hotel because its so new and it was at a great location from Will Rogers Coliseum. Check in was very easy and the lady at the desk was very helpful. The room was very nice and beds extremely comfortable. They were pretty standard in size but I had zero complaints. Breakfast was decent. It wasn't gourmet food but it did the job. They had your standard waffle maker, eggs, sausage, milk, juices, and coffee. There wasn't any issues with there being enough food. The breakfast bar was well stocked. The location of the hotel is very convenient. Food, shopping, and downtown is just a hop and a skip away. The area it was in also felt safe. I highly recommend this hotel if your planning on being in the Fort Worth area. Whether your traveling solo, as a couple, or with family its a very good choice.More</t>
   </si>
   <si>
-    <t>htowntravelers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r243398321-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1872,9 +1806,6 @@
     <t>I was visiting for a leisure stay and it was quite roomy and quiet peaceful sleep. the jacuzzi tube was a nice added feature and i am glad to have had that room. make sure you go thru the choice hotels site online for a better deal on this place...the breakfast was good.More</t>
   </si>
   <si>
-    <t>HJS716</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r242005087-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1899,9 +1830,6 @@
     <t>Felt like a brand new hotel, very clean and comfortable.  Very friendly and efficient check in and check out, nice to be greeted by a smiling face!!  Close to I-30, easy on and off but no interstate noise.  Breakfast was not fully stocked but, when asked, all things needed were supplied quickly. Will definitely choose this motel again.More</t>
   </si>
   <si>
-    <t>JRMcCoy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r241574915-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1920,9 +1848,6 @@
     <t>We had just sold our house and had not closed on our new house yet. The staff took us in like family. Rooms very nice and clean. Lots of room to park. Washer &amp; dryers on site, it did cost but worked very well. Breakfast everyday with a large selection. Nice lobby with tv so we didn't have to stay in our room constantly.  Small but nice work out room with tv. Small office with computers separet from lobby for no noise. They even had a nice pool, not huge but bigger the lots. Close to shopping and resturants, like 5 minutes. Loved this place, would highly recommend to everyone. Easy handicap access for my husband also.More</t>
   </si>
   <si>
-    <t>KimboTwo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r234429537-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1950,9 +1875,6 @@
     <t>New, Clean, convenient. Linens were fresh, new. Nice size bathroom, great shower. OVer 100 cable TV channels. Outside Pool, no hot tub found. Desk clerk cheerful, helpful. Free breakfast fresh, nothing special, but hot and good.  Free newspaper. Convenient tro I-30, just off Cherry Lane north of I-30.More</t>
   </si>
   <si>
-    <t>lubbockmom6767</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r230946541-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1971,9 +1893,6 @@
     <t>1. breakfast started late, broken coffee maker, rotten fruit 2. not the cleanest room3. bad part of town, homeless and shady looking people everywhere4. nice front desk staff5. for the area it's a better choice than the sleazy motels surrounding it though.More</t>
   </si>
   <si>
-    <t>Bulld0g_44</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r227580858-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -1999,9 +1918,6 @@
   </si>
   <si>
     <t>Staff was friendly and helpful. Had a TV issue, and they responded quickly and professionally.The hotel was very clean, it seemed to have been just remodeled. The rooms were generously sized and very quiet. Bed was comfortable, and a big plus was a shower with a tall showerhead and good pressure.Overall, a nice place, conveniently located, and a good value.More</t>
-  </si>
-  <si>
-    <t>Judy P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d6865341-r224933715-Comfort_Inn_Suites_Fort_Worth_West-White_Settlement_Texas.html</t>
@@ -2527,47 +2443,43 @@
       <c r="A2" t="n">
         <v>63409</v>
       </c>
-      <c r="B2" t="n">
-        <v>124430</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2581,54 +2493,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63409</v>
       </c>
-      <c r="B3" t="n">
-        <v>124431</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2646,60 +2554,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63409</v>
       </c>
-      <c r="B4" t="n">
-        <v>9534</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2711,60 +2615,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63409</v>
       </c>
-      <c r="B5" t="n">
-        <v>17805</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2776,200 +2676,178 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63409</v>
       </c>
-      <c r="B6" t="n">
-        <v>124432</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="O6" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63409</v>
       </c>
-      <c r="B7" t="n">
-        <v>124433</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63409</v>
       </c>
-      <c r="B8" t="n">
-        <v>124434</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2981,13 +2859,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -3000,37 +2878,37 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3042,261 +2920,249 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
         <v>111</v>
-      </c>
-      <c r="X9" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63409</v>
       </c>
-      <c r="B10" t="n">
-        <v>124435</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63409</v>
       </c>
-      <c r="B11" t="n">
-        <v>124436</v>
-      </c>
-      <c r="C11" t="s">
-        <v>130</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63409</v>
       </c>
-      <c r="B12" t="n">
-        <v>124437</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63409</v>
       </c>
-      <c r="B13" t="n">
-        <v>124438</v>
-      </c>
-      <c r="C13" t="s">
-        <v>149</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3308,267 +3174,245 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63409</v>
       </c>
-      <c r="B14" t="n">
-        <v>1287</v>
-      </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63409</v>
       </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>166</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63409</v>
       </c>
-      <c r="B16" t="n">
-        <v>5292</v>
-      </c>
-      <c r="C16" t="s">
-        <v>173</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63409</v>
       </c>
-      <c r="B17" t="n">
-        <v>7677</v>
-      </c>
-      <c r="C17" t="s">
-        <v>183</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3579,136 +3423,126 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63409</v>
       </c>
-      <c r="B18" t="n">
-        <v>124439</v>
-      </c>
-      <c r="C18" t="s">
-        <v>190</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="X18" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Y18" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63409</v>
       </c>
-      <c r="B19" t="n">
-        <v>18759</v>
-      </c>
-      <c r="C19" t="s">
-        <v>200</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -3718,196 +3552,184 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="X19" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="Y19" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63409</v>
       </c>
-      <c r="B20" t="n">
-        <v>124440</v>
-      </c>
-      <c r="C20" t="s">
-        <v>209</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="J20" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="X20" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="Y20" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63409</v>
       </c>
-      <c r="B21" t="n">
-        <v>124441</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63409</v>
       </c>
-      <c r="B22" t="n">
-        <v>124442</v>
-      </c>
-      <c r="C22" t="s">
-        <v>227</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3918,614 +3740,578 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>233</v>
-      </c>
-      <c r="X22" t="s">
-        <v>234</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63409</v>
       </c>
-      <c r="B23" t="n">
-        <v>124443</v>
-      </c>
-      <c r="C23" t="s">
-        <v>236</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
       <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63409</v>
       </c>
-      <c r="B24" t="n">
-        <v>124444</v>
-      </c>
-      <c r="C24" t="s">
-        <v>247</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
         <v>4</v>
       </c>
-      <c r="N24" t="s">
-        <v>242</v>
-      </c>
-      <c r="O24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="X24" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="Y24" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63409</v>
       </c>
-      <c r="B25" t="n">
-        <v>124445</v>
-      </c>
-      <c r="C25" t="s">
-        <v>256</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>262</v>
+        <v>59</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="X25" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63409</v>
       </c>
-      <c r="B26" t="n">
-        <v>124446</v>
-      </c>
-      <c r="C26" t="s">
-        <v>266</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="X26" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63409</v>
       </c>
-      <c r="B27" t="n">
-        <v>124447</v>
-      </c>
-      <c r="C27" t="s">
-        <v>276</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="X27" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="Y27" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63409</v>
       </c>
-      <c r="B28" t="n">
-        <v>124448</v>
-      </c>
-      <c r="C28" t="s">
-        <v>283</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="X28" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="Y28" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63409</v>
       </c>
-      <c r="B29" t="n">
-        <v>124449</v>
-      </c>
-      <c r="C29" t="s">
-        <v>291</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="X29" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="Y29" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63409</v>
       </c>
-      <c r="B30" t="n">
-        <v>124450</v>
-      </c>
-      <c r="C30" t="s">
-        <v>300</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J30" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="X30" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="Y30" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63409</v>
       </c>
-      <c r="B31" t="n">
-        <v>124451</v>
-      </c>
-      <c r="C31" t="s">
-        <v>310</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -4534,66 +4320,62 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="X31" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="Y31" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63409</v>
       </c>
-      <c r="B32" t="n">
-        <v>124452</v>
-      </c>
-      <c r="C32" t="s">
-        <v>317</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="J32" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>5</v>
       </c>
@@ -4605,138 +4387,124 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="X32" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="Y32" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>63409</v>
       </c>
-      <c r="B33" t="n">
-        <v>124453</v>
-      </c>
-      <c r="C33" t="s">
-        <v>324</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="X33" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="Y33" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>63409</v>
       </c>
-      <c r="B34" t="n">
-        <v>124454</v>
-      </c>
-      <c r="C34" t="s">
-        <v>331</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="J34" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -4745,267 +4513,255 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y34" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>63409</v>
       </c>
-      <c r="B35" t="n">
-        <v>124455</v>
-      </c>
-      <c r="C35" t="s">
-        <v>339</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="J35" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="K35" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="O35" t="s">
-        <v>243</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>3</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="X35" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="Y35" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>63409</v>
       </c>
-      <c r="B36" t="n">
-        <v>124456</v>
-      </c>
-      <c r="C36" t="s">
-        <v>349</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="X36" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="Y36" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>63409</v>
       </c>
-      <c r="B37" t="n">
-        <v>124457</v>
-      </c>
-      <c r="C37" t="s">
-        <v>357</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="J37" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="K37" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="X37" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="Y37" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>63409</v>
       </c>
-      <c r="B38" t="n">
-        <v>124454</v>
-      </c>
-      <c r="C38" t="s">
-        <v>339</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="J38" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="K38" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s">
-        <v>243</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -5015,13 +4771,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="X38" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="Y38" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
@@ -5034,44 +4790,46 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="J39" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="O39" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -5080,129 +4838,123 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="X39" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="Y39" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>63409</v>
       </c>
-      <c r="B40" t="n">
-        <v>124458</v>
-      </c>
-      <c r="C40" t="s">
-        <v>378</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="J40" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="K40" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
+        <v>260</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="X40" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="Y40" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>63409</v>
       </c>
-      <c r="B41" t="n">
-        <v>124459</v>
-      </c>
-      <c r="C41" t="s">
-        <v>388</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="J41" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5214,200 +4966,188 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="X41" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="Y41" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>63409</v>
       </c>
-      <c r="B42" t="n">
-        <v>124460</v>
-      </c>
-      <c r="C42" t="s">
-        <v>397</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="J42" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>3</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="X42" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="Y42" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>63409</v>
       </c>
-      <c r="B43" t="n">
-        <v>124461</v>
-      </c>
-      <c r="C43" t="s">
-        <v>405</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="J43" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="O43" t="s">
-        <v>243</v>
-      </c>
-      <c r="P43" t="s"/>
+        <v>260</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="X43" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="Y43" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>63409</v>
       </c>
-      <c r="B44" t="n">
-        <v>124462</v>
-      </c>
-      <c r="C44" t="s">
-        <v>414</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -5417,125 +5157,121 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>421</v>
+        <v>351</v>
       </c>
       <c r="X44" t="s">
-        <v>422</v>
+        <v>352</v>
       </c>
       <c r="Y44" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>63409</v>
       </c>
-      <c r="B45" t="n">
-        <v>124463</v>
-      </c>
-      <c r="C45" t="s">
-        <v>424</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="J45" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="K45" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="O45" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="X45" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="Y45" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>63409</v>
       </c>
-      <c r="B46" t="n">
-        <v>124464</v>
-      </c>
-      <c r="C46" t="s">
-        <v>431</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="J46" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5547,122 +5283,122 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="X46" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="Y46" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>63409</v>
       </c>
-      <c r="B47" t="n">
-        <v>124465</v>
-      </c>
-      <c r="C47" t="s">
-        <v>437</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="J47" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>443</v>
+        <v>372</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="X47" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="Y47" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>63409</v>
       </c>
-      <c r="B48" t="n">
-        <v>124466</v>
-      </c>
-      <c r="C48" t="s">
-        <v>445</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="J48" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="K48" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>260</v>
+      </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
@@ -5673,64 +5409,58 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="X48" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="Y48" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>63409</v>
       </c>
-      <c r="B49" t="n">
-        <v>124467</v>
-      </c>
-      <c r="C49" t="s">
-        <v>454</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="J49" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="O49" t="s">
-        <v>73</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
         <v>5</v>
       </c>
@@ -5744,57 +5474,57 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="X49" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="Y49" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>63409</v>
       </c>
-      <c r="B50" t="n">
-        <v>2581</v>
-      </c>
-      <c r="C50" t="s">
-        <v>464</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>465</v>
+        <v>422</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>466</v>
+        <v>423</v>
       </c>
       <c r="J50" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="K50" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="L50" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>418</v>
+      </c>
+      <c r="O50" t="s">
+        <v>87</v>
+      </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
@@ -5805,60 +5535,56 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="X50" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="Y50" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>63409</v>
       </c>
-      <c r="B51" t="n">
-        <v>6540</v>
-      </c>
-      <c r="C51" t="s">
-        <v>473</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="J51" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="K51" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="L51" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>479</v>
+        <v>418</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5870,57 +5596,57 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="X51" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="Y51" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>63409</v>
       </c>
-      <c r="B52" t="n">
-        <v>6711</v>
-      </c>
-      <c r="C52" t="s">
-        <v>483</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>485</v>
+        <v>434</v>
       </c>
       <c r="J52" t="s">
-        <v>486</v>
+        <v>435</v>
       </c>
       <c r="K52" t="s">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="L52" t="s">
-        <v>488</v>
+        <v>437</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+      <c r="N52" t="s">
+        <v>438</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
@@ -5931,61 +5657,53 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>489</v>
+        <v>419</v>
       </c>
       <c r="X52" t="s">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="Y52" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>63409</v>
       </c>
-      <c r="B53" t="n">
-        <v>80277</v>
-      </c>
-      <c r="C53" t="s">
-        <v>492</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="J53" t="s">
-        <v>495</v>
+        <v>442</v>
       </c>
       <c r="K53" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
       <c r="L53" t="s">
-        <v>497</v>
+        <v>444</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
-      <c r="N53" t="s">
-        <v>498</v>
-      </c>
-      <c r="O53" t="s">
-        <v>62</v>
-      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
@@ -5996,126 +5714,120 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="X53" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="Y53" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>63409</v>
       </c>
-      <c r="B54" t="n">
-        <v>124468</v>
-      </c>
-      <c r="C54" t="s">
-        <v>502</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="J54" t="s">
-        <v>505</v>
+        <v>450</v>
       </c>
       <c r="K54" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="L54" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="O54" t="s">
-        <v>243</v>
-      </c>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
       <c r="R54" t="s"/>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>508</v>
+        <v>454</v>
       </c>
       <c r="X54" t="s">
-        <v>509</v>
+        <v>455</v>
       </c>
       <c r="Y54" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>63409</v>
       </c>
-      <c r="B55" t="n">
-        <v>22665</v>
-      </c>
-      <c r="C55" t="s">
-        <v>511</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="J55" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
       <c r="K55" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="L55" t="s">
-        <v>516</v>
+        <v>461</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
-      <c r="N55" t="s">
-        <v>498</v>
-      </c>
-      <c r="O55" t="s">
-        <v>73</v>
-      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
@@ -6126,202 +5838,174 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="X55" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="Y55" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>63409</v>
       </c>
-      <c r="B56" t="n">
-        <v>7018</v>
-      </c>
-      <c r="C56" t="s">
-        <v>520</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
       <c r="J56" t="s">
-        <v>523</v>
+        <v>467</v>
       </c>
       <c r="K56" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="L56" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="O56" t="s">
-        <v>54</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="X56" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="Y56" t="s">
-        <v>529</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>63409</v>
       </c>
-      <c r="B57" t="n">
-        <v>7005</v>
-      </c>
-      <c r="C57" t="s">
-        <v>530</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>531</v>
+        <v>474</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>532</v>
+        <v>475</v>
       </c>
       <c r="J57" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="K57" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="L57" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
-      <c r="N57" t="s">
-        <v>536</v>
-      </c>
-      <c r="O57" t="s">
-        <v>62</v>
-      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
       <c r="P57" t="s"/>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>537</v>
+        <v>479</v>
       </c>
       <c r="X57" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="Y57" t="s">
-        <v>539</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>63409</v>
       </c>
-      <c r="B58" t="n">
-        <v>124469</v>
-      </c>
-      <c r="C58" t="s">
-        <v>540</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>541</v>
+        <v>482</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>542</v>
+        <v>483</v>
       </c>
       <c r="J58" t="s">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="K58" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="L58" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6333,60 +6017,56 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>546</v>
+        <v>488</v>
       </c>
       <c r="X58" t="s">
-        <v>547</v>
+        <v>489</v>
       </c>
       <c r="Y58" t="s">
-        <v>548</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>63409</v>
       </c>
-      <c r="B59" t="n">
-        <v>124432</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>549</v>
+        <v>491</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>550</v>
+        <v>492</v>
       </c>
       <c r="J59" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="K59" t="s">
-        <v>552</v>
+        <v>494</v>
       </c>
       <c r="L59" t="s">
-        <v>553</v>
+        <v>495</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
       <c r="O59" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6398,138 +6078,126 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="X59" t="s">
-        <v>556</v>
+        <v>497</v>
       </c>
       <c r="Y59" t="s">
-        <v>557</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>63409</v>
       </c>
-      <c r="B60" t="n">
-        <v>22409</v>
-      </c>
-      <c r="C60" t="s">
-        <v>558</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="J60" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="K60" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="L60" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>564</v>
+        <v>487</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
       <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>565</v>
+        <v>504</v>
       </c>
       <c r="X60" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
       <c r="Y60" t="s">
-        <v>567</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>63409</v>
       </c>
-      <c r="B61" t="n">
-        <v>124470</v>
-      </c>
-      <c r="C61" t="s">
-        <v>568</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>569</v>
+        <v>507</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>570</v>
+        <v>508</v>
       </c>
       <c r="J61" t="s">
-        <v>571</v>
+        <v>509</v>
       </c>
       <c r="K61" t="s">
-        <v>572</v>
+        <v>510</v>
       </c>
       <c r="L61" t="s">
-        <v>573</v>
+        <v>511</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>554</v>
+        <v>512</v>
       </c>
       <c r="O61" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
       </c>
       <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
         <v>5</v>
@@ -6538,66 +6206,64 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>565</v>
+        <v>513</v>
       </c>
       <c r="X61" t="s">
-        <v>566</v>
+        <v>514</v>
       </c>
       <c r="Y61" t="s">
-        <v>574</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>63409</v>
       </c>
-      <c r="B62" t="n">
-        <v>124471</v>
-      </c>
-      <c r="C62" t="s">
-        <v>575</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
       <c r="J62" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="K62" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
       <c r="L62" t="s">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
@@ -6607,205 +6273,187 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>581</v>
+        <v>522</v>
       </c>
       <c r="X62" t="s">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="Y62" t="s">
-        <v>583</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>63409</v>
       </c>
-      <c r="B63" t="n">
-        <v>124472</v>
-      </c>
-      <c r="C63" t="s">
-        <v>584</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>586</v>
+        <v>526</v>
       </c>
       <c r="J63" t="s">
-        <v>587</v>
+        <v>527</v>
       </c>
       <c r="K63" t="s">
-        <v>588</v>
+        <v>528</v>
       </c>
       <c r="L63" t="s">
-        <v>589</v>
+        <v>529</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>564</v>
+        <v>521</v>
       </c>
       <c r="O63" t="s">
-        <v>73</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
       <c r="R63" t="s"/>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="X63" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="Y63" t="s">
-        <v>590</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>63409</v>
       </c>
-      <c r="B64" t="n">
-        <v>124448</v>
-      </c>
-      <c r="C64" t="s">
-        <v>291</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>591</v>
+        <v>533</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>592</v>
+        <v>534</v>
       </c>
       <c r="J64" t="s">
-        <v>593</v>
+        <v>535</v>
       </c>
       <c r="K64" t="s">
-        <v>594</v>
+        <v>536</v>
       </c>
       <c r="L64" t="s">
-        <v>595</v>
+        <v>537</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>596</v>
+        <v>538</v>
       </c>
       <c r="O64" t="s">
-        <v>54</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
       <c r="R64" t="s"/>
       <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>597</v>
+        <v>539</v>
       </c>
       <c r="X64" t="s">
-        <v>598</v>
+        <v>540</v>
       </c>
       <c r="Y64" t="s">
-        <v>599</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>63409</v>
       </c>
-      <c r="B65" t="n">
-        <v>124473</v>
-      </c>
-      <c r="C65" t="s">
-        <v>600</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>601</v>
+        <v>542</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>602</v>
+        <v>543</v>
       </c>
       <c r="J65" t="s">
-        <v>603</v>
+        <v>544</v>
       </c>
       <c r="K65" t="s">
-        <v>604</v>
+        <v>545</v>
       </c>
       <c r="L65" t="s">
-        <v>605</v>
+        <v>546</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>606</v>
+        <v>547</v>
       </c>
       <c r="O65" t="s">
-        <v>156</v>
-      </c>
-      <c r="P65" t="s"/>
-      <c r="Q65" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
       <c r="R65" t="s"/>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
         <v>5</v>
@@ -6814,134 +6462,124 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>607</v>
+        <v>548</v>
       </c>
       <c r="X65" t="s">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="Y65" t="s">
-        <v>609</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>63409</v>
       </c>
-      <c r="B66" t="n">
-        <v>124474</v>
-      </c>
-      <c r="C66" t="s">
-        <v>610</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>612</v>
+        <v>552</v>
       </c>
       <c r="J66" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="K66" t="s">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="L66" t="s">
-        <v>615</v>
+        <v>555</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>616</v>
+        <v>538</v>
       </c>
       <c r="O66" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
       <c r="R66" t="s"/>
       <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>607</v>
+        <v>548</v>
       </c>
       <c r="X66" t="s">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="Y66" t="s">
-        <v>617</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>63409</v>
       </c>
-      <c r="B67" t="n">
-        <v>124475</v>
-      </c>
-      <c r="C67" t="s">
-        <v>618</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>619</v>
+        <v>557</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>620</v>
+        <v>558</v>
       </c>
       <c r="J67" t="s">
-        <v>621</v>
+        <v>559</v>
       </c>
       <c r="K67" t="s">
-        <v>622</v>
+        <v>560</v>
       </c>
       <c r="L67" t="s">
-        <v>623</v>
+        <v>561</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>616</v>
+        <v>538</v>
       </c>
       <c r="O67" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="s"/>
       <c r="R67" t="s"/>
@@ -6954,69 +6592,63 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="X67" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="Y67" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>63409</v>
       </c>
-      <c r="B68" t="n">
-        <v>124476</v>
-      </c>
-      <c r="C68" t="s">
-        <v>627</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>628</v>
+        <v>565</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>629</v>
+        <v>566</v>
       </c>
       <c r="J68" t="s">
-        <v>630</v>
+        <v>567</v>
       </c>
       <c r="K68" t="s">
-        <v>631</v>
+        <v>568</v>
       </c>
       <c r="L68" t="s">
-        <v>632</v>
+        <v>569</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
-      <c r="N68" t="s"/>
-      <c r="O68" t="s"/>
+      <c r="N68" t="s">
+        <v>547</v>
+      </c>
+      <c r="O68" t="s">
+        <v>87</v>
+      </c>
       <c r="P68" t="n">
         <v>5</v>
       </c>
-      <c r="Q68" t="n">
-        <v>5</v>
-      </c>
-      <c r="R68" t="n">
-        <v>5</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
         <v>5</v>
@@ -7025,276 +6657,260 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="X68" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="Y68" t="s">
-        <v>633</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>63409</v>
       </c>
-      <c r="B69" t="n">
-        <v>124477</v>
-      </c>
-      <c r="C69" t="s">
-        <v>634</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>635</v>
+        <v>571</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="J69" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="K69" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="L69" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>640</v>
+        <v>576</v>
       </c>
       <c r="O69" t="s">
-        <v>62</v>
-      </c>
-      <c r="P69" t="s"/>
-      <c r="Q69" t="n">
-        <v>4</v>
-      </c>
-      <c r="R69" t="n">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
       <c r="S69" t="s"/>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>641</v>
+        <v>577</v>
       </c>
       <c r="X69" t="s">
-        <v>642</v>
+        <v>578</v>
       </c>
       <c r="Y69" t="s">
-        <v>643</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>63409</v>
       </c>
-      <c r="B70" t="n">
-        <v>124478</v>
-      </c>
-      <c r="C70" t="s">
-        <v>644</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>645</v>
+        <v>580</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>646</v>
+        <v>581</v>
       </c>
       <c r="J70" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
       <c r="K70" t="s">
-        <v>648</v>
+        <v>583</v>
       </c>
       <c r="L70" t="s">
-        <v>649</v>
+        <v>584</v>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
-      </c>
-      <c r="N70" t="s"/>
-      <c r="O70" t="s"/>
-      <c r="P70" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>3</v>
-      </c>
-      <c r="R70" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>585</v>
+      </c>
+      <c r="O70" t="s">
+        <v>183</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
       <c r="S70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>641</v>
+        <v>586</v>
       </c>
       <c r="X70" t="s">
-        <v>642</v>
+        <v>587</v>
       </c>
       <c r="Y70" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>63409</v>
       </c>
-      <c r="B71" t="n">
-        <v>124479</v>
-      </c>
-      <c r="C71" t="s">
-        <v>651</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>652</v>
+        <v>589</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="J71" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="K71" t="s">
-        <v>655</v>
+        <v>592</v>
       </c>
       <c r="L71" t="s">
-        <v>656</v>
+        <v>593</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>657</v>
+        <v>594</v>
       </c>
       <c r="O71" t="s">
-        <v>54</v>
-      </c>
-      <c r="P71" t="s"/>
-      <c r="Q71" t="s"/>
+        <v>260</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
       <c r="R71" t="s"/>
       <c r="S71" t="s"/>
       <c r="T71" t="s"/>
-      <c r="U71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>658</v>
+        <v>586</v>
       </c>
       <c r="X71" t="s">
-        <v>659</v>
+        <v>587</v>
       </c>
       <c r="Y71" t="s">
-        <v>660</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>63409</v>
       </c>
-      <c r="B72" t="n">
-        <v>44072</v>
-      </c>
-      <c r="C72" t="s">
-        <v>661</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>662</v>
+        <v>596</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>663</v>
+        <v>597</v>
       </c>
       <c r="J72" t="s">
-        <v>664</v>
+        <v>598</v>
       </c>
       <c r="K72" t="s">
-        <v>665</v>
+        <v>599</v>
       </c>
       <c r="L72" t="s">
-        <v>666</v>
+        <v>600</v>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>667</v>
+        <v>594</v>
       </c>
       <c r="O72" t="s">
-        <v>62</v>
-      </c>
-      <c r="P72" t="s"/>
-      <c r="Q72" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="s"/>
       <c r="R72" t="s"/>
-      <c r="S72" t="n">
-        <v>5</v>
-      </c>
+      <c r="S72" t="s"/>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
         <v>5</v>
@@ -7303,13 +6919,342 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>658</v>
+        <v>601</v>
       </c>
       <c r="X72" t="s">
-        <v>659</v>
+        <v>602</v>
       </c>
       <c r="Y72" t="s">
-        <v>668</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63409</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>604</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>605</v>
+      </c>
+      <c r="J73" t="s">
+        <v>606</v>
+      </c>
+      <c r="K73" t="s">
+        <v>607</v>
+      </c>
+      <c r="L73" t="s">
+        <v>608</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>601</v>
+      </c>
+      <c r="X73" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63409</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>610</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>611</v>
+      </c>
+      <c r="J74" t="s">
+        <v>612</v>
+      </c>
+      <c r="K74" t="s">
+        <v>613</v>
+      </c>
+      <c r="L74" t="s">
+        <v>614</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>615</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>616</v>
+      </c>
+      <c r="X74" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63409</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>619</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>620</v>
+      </c>
+      <c r="J75" t="s">
+        <v>621</v>
+      </c>
+      <c r="K75" t="s">
+        <v>622</v>
+      </c>
+      <c r="L75" t="s">
+        <v>623</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>616</v>
+      </c>
+      <c r="X75" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63409</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>625</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>626</v>
+      </c>
+      <c r="J76" t="s">
+        <v>627</v>
+      </c>
+      <c r="K76" t="s">
+        <v>628</v>
+      </c>
+      <c r="L76" t="s">
+        <v>629</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>630</v>
+      </c>
+      <c r="O76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>631</v>
+      </c>
+      <c r="X76" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63409</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>634</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>635</v>
+      </c>
+      <c r="J77" t="s">
+        <v>636</v>
+      </c>
+      <c r="K77" t="s">
+        <v>637</v>
+      </c>
+      <c r="L77" t="s">
+        <v>638</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>639</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>631</v>
+      </c>
+      <c r="X77" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
